--- a/capiq_data/in_process_data/IQ28209.xlsx
+++ b/capiq_data/in_process_data/IQ28209.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FFC4CC-84E4-4A86-9345-0E15FC646105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59C7D3C-217D-4229-9C27-1655D78083CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9ed24443-4601-4126-807e-19176c4ecf92"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"64367833-02a5-4657-a2a8-16e98a00e62e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>189.38300000000001</v>
+        <v>126.337</v>
       </c>
       <c r="D2">
-        <v>454.29500000000002</v>
+        <v>516.87199999999996</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="F2">
-        <v>279.74599999999998</v>
+        <v>350.05900000000003</v>
       </c>
       <c r="G2">
-        <v>686.32399999999996</v>
+        <v>25.573</v>
       </c>
       <c r="H2">
-        <v>16184.194</v>
+        <v>12263.966</v>
       </c>
       <c r="I2">
-        <v>39.451999999999998</v>
+        <v>107.818</v>
       </c>
       <c r="J2">
-        <v>9948.0759999999991</v>
+        <v>5706.152</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>318.06599999999997</v>
+        <v>178.55799999999999</v>
       </c>
       <c r="O2">
-        <v>10592.078</v>
+        <v>6031.8010000000004</v>
       </c>
       <c r="P2">
-        <v>9987.1540000000005</v>
+        <v>5706.152</v>
       </c>
       <c r="Q2">
-        <v>387.74799999999999</v>
+        <v>-32.47</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4000</v>
+        <v>7400</v>
       </c>
       <c r="T2">
-        <v>5592.116</v>
+        <v>6232.165</v>
       </c>
       <c r="U2">
-        <v>431.40800000000002</v>
+        <v>23.771999999999998</v>
       </c>
       <c r="V2">
-        <v>165.35599999999999</v>
+        <v>177.518</v>
       </c>
       <c r="W2">
-        <v>-99.397000000000006</v>
+        <v>-246.739</v>
       </c>
       <c r="X2">
-        <v>-50.679000000000002</v>
+        <v>103.57899999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-20.637</v>
       </c>
       <c r="AA2">
-        <v>189.38300000000001</v>
+        <v>126.337</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>127.331</v>
+        <v>135.28</v>
       </c>
       <c r="D3">
-        <v>462.50799999999998</v>
+        <v>516.952</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F3">
-        <v>283.786</v>
+        <v>361.81900000000002</v>
       </c>
       <c r="G3">
-        <v>630.66499999999996</v>
+        <v>106.81100000000001</v>
       </c>
       <c r="H3">
-        <v>16075.329</v>
+        <v>12245.495000000001</v>
       </c>
       <c r="I3">
-        <v>80.385000000000005</v>
+        <v>98.665000000000006</v>
       </c>
       <c r="J3">
-        <v>9422.8369999999995</v>
+        <v>5515.9440000000004</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-298.05200000000002</v>
+        <v>-717.46400000000006</v>
       </c>
       <c r="N3">
-        <v>545.73099999999999</v>
+        <v>310.50400000000002</v>
       </c>
       <c r="O3">
-        <v>10256.546</v>
+        <v>5981.3620000000001</v>
       </c>
       <c r="P3">
-        <v>9710.1910000000007</v>
+        <v>5515.9440000000004</v>
       </c>
       <c r="Q3">
-        <v>-125.336</v>
+        <v>81.058999999999997</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5818.7830000000004</v>
+        <v>6264.1329999999998</v>
       </c>
       <c r="U3">
-        <v>306.072</v>
+        <v>104.831</v>
       </c>
       <c r="V3">
-        <v>187.52799999999999</v>
+        <v>236.41300000000001</v>
       </c>
       <c r="W3">
-        <v>-136.12100000000001</v>
+        <v>-21.931999999999999</v>
       </c>
       <c r="X3">
-        <v>-274.858</v>
+        <v>-203.51599999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.36599999999999999</v>
+        <v>-8.2490000000000006</v>
       </c>
       <c r="AA3">
-        <v>127.331</v>
+        <v>135.28</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>555.92399999999998</v>
+        <v>102.931</v>
       </c>
       <c r="D4">
-        <v>467.43799999999999</v>
+        <v>514.05700000000002</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="F4">
-        <v>297.21600000000001</v>
+        <v>358.38099999999997</v>
       </c>
       <c r="G4">
-        <v>980.41800000000001</v>
+        <v>29.111000000000001</v>
       </c>
       <c r="H4">
-        <v>16398.121999999999</v>
+        <v>12077.736000000001</v>
       </c>
       <c r="I4">
-        <v>69.117999999999995</v>
+        <v>108.41500000000001</v>
       </c>
       <c r="J4">
-        <v>9194.9009999999998</v>
+        <v>5590.5879999999997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>587.50800000000004</v>
+        <v>308.42899999999997</v>
       </c>
       <c r="O4">
-        <v>10084.172</v>
+        <v>6014.6880000000001</v>
       </c>
       <c r="P4">
-        <v>9514.1409999999996</v>
+        <v>5590.5879999999997</v>
       </c>
       <c r="Q4">
-        <v>298.69200000000001</v>
+        <v>-78.216999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6313.95</v>
+        <v>6063.0479999999998</v>
       </c>
       <c r="U4">
-        <v>604.76400000000001</v>
+        <v>26.614000000000001</v>
       </c>
       <c r="V4">
-        <v>204.94900000000001</v>
+        <v>188.226</v>
       </c>
       <c r="W4">
-        <v>-102.807</v>
+        <v>-137.155</v>
       </c>
       <c r="X4">
-        <v>-348.32900000000001</v>
+        <v>-246.203</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-4.5999999999999999E-2</v>
+        <v>-22.713999999999999</v>
       </c>
       <c r="AA4">
-        <v>555.92399999999998</v>
+        <v>102.931</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>107.848</v>
+        <v>93.850999999999999</v>
       </c>
       <c r="D5">
-        <v>493.87200000000001</v>
+        <v>526.875</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="F5">
-        <v>314.62599999999998</v>
+        <v>364.654</v>
       </c>
       <c r="G5">
-        <v>426.02800000000002</v>
+        <v>114.877</v>
       </c>
       <c r="H5">
-        <v>15756.816999999999</v>
+        <v>12194.617</v>
       </c>
       <c r="I5">
-        <v>97.844999999999999</v>
+        <v>135.15299999999999</v>
       </c>
       <c r="J5">
-        <v>8523.4050000000007</v>
+        <v>5688.18</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>694.34799999999996</v>
+        <v>357.45699999999999</v>
       </c>
       <c r="O5">
-        <v>9523.2479999999996</v>
+        <v>6164.8040000000001</v>
       </c>
       <c r="P5">
-        <v>8943.34</v>
+        <v>5688.18</v>
       </c>
       <c r="Q5">
-        <v>-558.77800000000002</v>
+        <v>84.192999999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6233.5690000000004</v>
+        <v>6029.8130000000001</v>
       </c>
       <c r="U5">
-        <v>45.985999999999997</v>
+        <v>110.807</v>
       </c>
       <c r="V5">
-        <v>221.57400000000001</v>
+        <v>285.06299999999999</v>
       </c>
       <c r="W5">
-        <v>-103.399</v>
+        <v>-128.904</v>
       </c>
       <c r="X5">
-        <v>-744.50800000000004</v>
+        <v>-356.16</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-0.45300000000000001</v>
+        <v>-20.251999999999999</v>
       </c>
       <c r="AA5">
-        <v>107.848</v>
+        <v>93.850999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>102.482</v>
+        <v>141.523</v>
       </c>
       <c r="D6">
-        <v>459.673</v>
+        <v>485.637</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F6">
-        <v>296.13099999999997</v>
+        <v>345.11500000000001</v>
       </c>
       <c r="G6">
-        <v>573.63</v>
+        <v>54.003</v>
       </c>
       <c r="H6">
-        <v>16659.303</v>
+        <v>12235.625</v>
       </c>
       <c r="I6">
-        <v>35.206000000000003</v>
+        <v>108.254</v>
       </c>
       <c r="J6">
-        <v>9721.0609999999997</v>
+        <v>5508.7650000000003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>334.68400000000003</v>
+        <v>546.43899999999996</v>
       </c>
       <c r="O6">
-        <v>10380.041999999999</v>
+        <v>6185.8530000000001</v>
       </c>
       <c r="P6">
-        <v>9753.3389999999999</v>
+        <v>5742.7579999999998</v>
       </c>
       <c r="Q6">
-        <v>337.935</v>
+        <v>-59.204000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>3800</v>
+        <v>6400</v>
       </c>
       <c r="T6">
-        <v>6279.2610000000004</v>
+        <v>6049.7719999999999</v>
       </c>
       <c r="U6">
-        <v>383.92099999999999</v>
+        <v>51.603000000000002</v>
       </c>
       <c r="V6">
-        <v>184.28299999999999</v>
+        <v>179.96600000000001</v>
       </c>
       <c r="W6">
-        <v>-102.52500000000001</v>
+        <v>-139.29400000000001</v>
       </c>
       <c r="X6">
-        <v>716.702</v>
+        <v>-113.387</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1.1559999999999999</v>
+        <v>-50.488</v>
       </c>
       <c r="AA6">
-        <v>102.482</v>
+        <v>141.523</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>145.29900000000001</v>
+        <v>100.878</v>
       </c>
       <c r="D7">
-        <v>430.26299999999998</v>
+        <v>480.16399999999999</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.355</v>
       </c>
       <c r="F7">
-        <v>266.375</v>
+        <v>339.44600000000003</v>
       </c>
       <c r="G7">
-        <v>409.48200000000003</v>
+        <v>251.11699999999999</v>
       </c>
       <c r="H7">
-        <v>16481.246999999999</v>
+        <v>12328.253000000001</v>
       </c>
       <c r="I7">
-        <v>77.055000000000007</v>
+        <v>99.668999999999997</v>
       </c>
       <c r="J7">
-        <v>8690.5419999999995</v>
+        <v>5448.4629999999997</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-305.62799999999999</v>
+        <v>-566.73599999999999</v>
       </c>
       <c r="N7">
-        <v>1016.672</v>
+        <v>704.42499999999995</v>
       </c>
       <c r="O7">
-        <v>10005.069</v>
+        <v>6287.6809999999996</v>
       </c>
       <c r="P7">
-        <v>9441.6270000000004</v>
+        <v>5835.4629999999997</v>
       </c>
       <c r="Q7">
-        <v>-164.29300000000001</v>
+        <v>198.15899999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>6476.1779999999999</v>
+        <v>6040.5720000000001</v>
       </c>
       <c r="U7">
-        <v>219.62799999999999</v>
+        <v>249.762</v>
       </c>
       <c r="V7">
-        <v>234.245</v>
+        <v>263.38900000000001</v>
       </c>
       <c r="W7">
-        <v>-171.816</v>
+        <v>-133.779</v>
       </c>
       <c r="X7">
-        <v>-316.673</v>
+        <v>-50.456000000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-2.3959999999999999</v>
+        <v>10.167</v>
       </c>
       <c r="AA7">
-        <v>145.29900000000001</v>
+        <v>100.878</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>103.264</v>
+        <v>113.297</v>
       </c>
       <c r="D8">
-        <v>420.79700000000003</v>
+        <v>454.06900000000002</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.6269999999999998</v>
       </c>
       <c r="F8">
-        <v>269.02600000000001</v>
+        <v>319.13900000000001</v>
       </c>
       <c r="G8">
-        <v>242.786</v>
+        <v>91.569000000000003</v>
       </c>
       <c r="H8">
-        <v>16714.412</v>
+        <v>12111.8</v>
       </c>
       <c r="I8">
-        <v>72.647000000000006</v>
+        <v>116.19199999999999</v>
       </c>
       <c r="J8">
-        <v>8584.1990000000005</v>
+        <v>5404.4840000000004</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1115.79</v>
+        <v>569.74800000000005</v>
       </c>
       <c r="O8">
-        <v>10157.984</v>
+        <v>6086.5559999999996</v>
       </c>
       <c r="P8">
-        <v>9435.1839999999993</v>
+        <v>5649.4840000000004</v>
       </c>
       <c r="Q8">
-        <v>-175.04300000000001</v>
+        <v>-160.82</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6556.4279999999999</v>
+        <v>6025.2439999999997</v>
       </c>
       <c r="U8">
-        <v>44.585000000000001</v>
+        <v>88.941999999999993</v>
       </c>
       <c r="V8">
-        <v>350.50400000000002</v>
+        <v>195.75700000000001</v>
       </c>
       <c r="W8">
-        <v>-104.872</v>
+        <v>-137.601</v>
       </c>
       <c r="X8">
-        <v>-214.607</v>
+        <v>-351.09800000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-3.024</v>
+        <v>-27.762</v>
       </c>
       <c r="AA8">
-        <v>103.264</v>
+        <v>113.297</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>226.13900000000001</v>
+        <v>88.661000000000001</v>
       </c>
       <c r="D9">
-        <v>451.69900000000001</v>
+        <v>467.04700000000003</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.9510000000000001</v>
       </c>
       <c r="F9">
-        <v>292.35199999999998</v>
+        <v>322.93299999999999</v>
       </c>
       <c r="G9">
-        <v>166.06299999999999</v>
+        <v>24.707000000000001</v>
       </c>
       <c r="H9">
-        <v>16668.544999999998</v>
+        <v>11998.196</v>
       </c>
       <c r="I9">
-        <v>105.602</v>
+        <v>139.268</v>
       </c>
       <c r="J9">
-        <v>9309.1530000000002</v>
+        <v>5424.5770000000002</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>292.51900000000001</v>
+        <v>496.00099999999998</v>
       </c>
       <c r="O9">
-        <v>10040.476000000001</v>
+        <v>6037.8649999999998</v>
       </c>
       <c r="P9">
-        <v>9309.1530000000002</v>
+        <v>5570.5770000000002</v>
       </c>
       <c r="Q9">
-        <v>1.038</v>
+        <v>-67.186000000000007</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>6628.0690000000004</v>
+        <v>5960.3310000000001</v>
       </c>
       <c r="U9">
-        <v>45.622999999999998</v>
+        <v>21.756</v>
       </c>
       <c r="V9">
-        <v>277.11700000000002</v>
+        <v>251.571</v>
       </c>
       <c r="W9">
-        <v>-105.97499999999999</v>
+        <v>-141.22200000000001</v>
       </c>
       <c r="X9">
-        <v>-288.25900000000001</v>
+        <v>-239.405</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-22.286999999999999</v>
       </c>
       <c r="AA9">
-        <v>226.13900000000001</v>
+        <v>88.661000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>367.017</v>
+        <v>118.477</v>
       </c>
       <c r="D10">
-        <v>444.74299999999999</v>
+        <v>422.68900000000002</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="F10">
-        <v>294.27100000000002</v>
+        <v>297.16899999999998</v>
       </c>
       <c r="G10">
-        <v>864.55499999999995</v>
+        <v>32.801000000000002</v>
       </c>
       <c r="H10">
-        <v>17201</v>
+        <v>11810.916999999999</v>
       </c>
       <c r="I10">
-        <v>38.372</v>
+        <v>58.783999999999999</v>
       </c>
       <c r="J10">
-        <v>8529.2440000000006</v>
+        <v>5383.6989999999996</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>418.82100000000003</v>
+        <v>402.779</v>
       </c>
       <c r="O10">
-        <v>9275.5210000000006</v>
+        <v>6002.491</v>
       </c>
       <c r="P10">
-        <v>8573.2939999999999</v>
+        <v>5523.6989999999996</v>
       </c>
       <c r="Q10">
-        <v>566.96699999999998</v>
+        <v>8.1189999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>7925.4790000000003</v>
+        <v>5808.4260000000004</v>
       </c>
       <c r="U10">
-        <v>612.59</v>
+        <v>29.875</v>
       </c>
       <c r="V10">
-        <v>184.28899999999999</v>
+        <v>178.221</v>
       </c>
       <c r="W10">
-        <v>-104.20399999999999</v>
+        <v>-138.36699999999999</v>
       </c>
       <c r="X10">
-        <v>263.221</v>
+        <v>-220.41</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.13200000000000001</v>
+        <v>12.856</v>
       </c>
       <c r="AA10">
-        <v>367.017</v>
+        <v>118.477</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1017.686</v>
+        <v>135.34700000000001</v>
       </c>
       <c r="D11">
-        <v>504.72199999999998</v>
+        <v>432.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="F11">
-        <v>316.96300000000002</v>
+        <v>298.404</v>
       </c>
       <c r="G11">
-        <v>203.655</v>
+        <v>311.71899999999999</v>
       </c>
       <c r="H11">
-        <v>23795.157999999999</v>
+        <v>12030.77</v>
       </c>
       <c r="I11">
-        <v>104.836</v>
+        <v>66.233999999999995</v>
       </c>
       <c r="J11">
-        <v>11632.421</v>
+        <v>5461.4359999999997</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-312</v>
       </c>
       <c r="M11">
-        <v>-6042.2640000000001</v>
+        <v>-110.27</v>
       </c>
       <c r="N11">
-        <v>908.23400000000004</v>
+        <v>566.63400000000001</v>
       </c>
       <c r="O11">
-        <v>12973.313</v>
+        <v>6240.9030000000002</v>
       </c>
       <c r="P11">
-        <v>12196.55</v>
+        <v>5755.4359999999997</v>
       </c>
       <c r="Q11">
-        <v>-556.50300000000004</v>
+        <v>280.43400000000003</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>10821.844999999999</v>
+        <v>5789.8670000000002</v>
       </c>
       <c r="U11">
-        <v>56.087000000000003</v>
+        <v>310.30900000000003</v>
       </c>
       <c r="V11">
-        <v>193.51400000000001</v>
+        <v>193.80199999999999</v>
       </c>
       <c r="W11">
-        <v>-249.33</v>
+        <v>-136.29</v>
       </c>
       <c r="X11">
-        <v>291.55599999999998</v>
+        <v>35.078000000000003</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.28299999999999997</v>
+        <v>-2.41</v>
       </c>
       <c r="AA11">
-        <v>1017.686</v>
+        <v>135.34700000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>324.75900000000001</v>
+        <v>136.39099999999999</v>
       </c>
       <c r="D12">
-        <v>617.21699999999998</v>
+        <v>430.315</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="F12">
-        <v>403.36599999999999</v>
+        <v>298.11900000000003</v>
       </c>
       <c r="G12">
-        <v>362.10700000000003</v>
+        <v>245.95699999999999</v>
       </c>
       <c r="H12">
-        <v>23482.383000000002</v>
+        <v>12043.691999999999</v>
       </c>
       <c r="I12">
-        <v>84.602999999999994</v>
+        <v>71.745999999999995</v>
       </c>
       <c r="J12">
-        <v>11717.692999999999</v>
+        <v>5454.6909999999998</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>327.40499999999997</v>
+        <v>528.12400000000002</v>
       </c>
       <c r="O12">
-        <v>12435.576999999999</v>
+        <v>6193.0240000000003</v>
       </c>
       <c r="P12">
-        <v>11723.566000000001</v>
+        <v>5704.6909999999998</v>
       </c>
       <c r="Q12">
-        <v>96.477000000000004</v>
+        <v>-66.471000000000004</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>11046.806</v>
+        <v>5850.6679999999997</v>
       </c>
       <c r="U12">
-        <v>152.56399999999999</v>
+        <v>243.83799999999999</v>
       </c>
       <c r="V12">
-        <v>224.30500000000001</v>
+        <v>176.54300000000001</v>
       </c>
       <c r="W12">
-        <v>-145.053</v>
+        <v>-136.65199999999999</v>
       </c>
       <c r="X12">
-        <v>-606.85299999999995</v>
+        <v>-165.12899999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-54.215000000000003</v>
+        <v>8.968</v>
       </c>
       <c r="AA12">
-        <v>324.75900000000001</v>
+        <v>126.123</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>377.19200000000001</v>
+        <v>121.871</v>
       </c>
       <c r="D13">
-        <v>626.62900000000002</v>
+        <v>438.77100000000002</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.038</v>
       </c>
       <c r="F13">
-        <v>411.54</v>
+        <v>299.31200000000001</v>
       </c>
       <c r="G13">
-        <v>1083.7670000000001</v>
+        <v>373.62400000000002</v>
       </c>
       <c r="H13">
-        <v>23811.431</v>
+        <v>11990.098</v>
       </c>
       <c r="I13">
-        <v>166.93899999999999</v>
+        <v>89.545000000000002</v>
       </c>
       <c r="J13">
-        <v>11704.062</v>
+        <v>5445.6660000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>408.71899999999999</v>
+        <v>427.52600000000001</v>
       </c>
       <c r="O13">
-        <v>12512.584000000001</v>
+        <v>6096.4589999999998</v>
       </c>
       <c r="P13">
-        <v>11710.653</v>
+        <v>5566.6660000000002</v>
       </c>
       <c r="Q13">
-        <v>820.197</v>
+        <v>128.74799999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>11298.847</v>
+        <v>5893.6390000000001</v>
       </c>
       <c r="U13">
-        <v>972.76099999999997</v>
+        <v>372.58600000000001</v>
       </c>
       <c r="V13">
-        <v>349.274</v>
+        <v>227.52099999999999</v>
       </c>
       <c r="W13">
-        <v>-146.19</v>
+        <v>-135.28100000000001</v>
       </c>
       <c r="X13">
-        <v>-149.46299999999999</v>
+        <v>-275.43700000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>21.434000000000001</v>
+        <v>-10.763</v>
       </c>
       <c r="AA13">
-        <v>377.19200000000001</v>
+        <v>132.13900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>110.976</v>
+        <v>129.702</v>
       </c>
       <c r="D14">
-        <v>639.13400000000001</v>
+        <v>394.01600000000002</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="F14">
-        <v>421.60500000000002</v>
+        <v>263.76400000000001</v>
       </c>
       <c r="G14">
-        <v>175.81100000000001</v>
+        <v>50.005000000000003</v>
       </c>
       <c r="H14">
-        <v>22834.544999999998</v>
+        <v>11466.893</v>
       </c>
       <c r="I14">
-        <v>118.791</v>
+        <v>55.463000000000001</v>
       </c>
       <c r="J14">
-        <v>10766.254000000001</v>
+        <v>5350.4889999999996</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>440.61099999999999</v>
+        <v>265.99200000000002</v>
       </c>
       <c r="O14">
-        <v>11626.205</v>
+        <v>5850.5230000000001</v>
       </c>
       <c r="P14">
-        <v>10766.254000000001</v>
+        <v>5360.4889999999996</v>
       </c>
       <c r="Q14">
-        <v>-919.22699999999998</v>
+        <v>-323.00700000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="T14">
-        <v>11208.34</v>
+        <v>5616.37</v>
       </c>
       <c r="U14">
-        <v>53.533999999999999</v>
+        <v>49.579000000000001</v>
       </c>
       <c r="V14">
-        <v>101.82299999999999</v>
+        <v>146.453</v>
       </c>
       <c r="W14">
-        <v>-145.18199999999999</v>
+        <v>-143.32900000000001</v>
       </c>
       <c r="X14">
-        <v>-956.23500000000001</v>
+        <v>-653.15499999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-3.0579999999999998</v>
+        <v>10.879</v>
       </c>
       <c r="AA14">
-        <v>110.976</v>
+        <v>129.702</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>79.135000000000005</v>
+        <v>111.98099999999999</v>
       </c>
       <c r="D15">
-        <v>633.44200000000001</v>
+        <v>424.601</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.5840000000000001</v>
       </c>
       <c r="F15">
-        <v>402.00200000000001</v>
+        <v>288.63600000000002</v>
       </c>
       <c r="G15">
-        <v>139.71799999999999</v>
+        <v>74.111000000000004</v>
       </c>
       <c r="H15">
-        <v>22889.631000000001</v>
+        <v>12457.227999999999</v>
       </c>
       <c r="I15">
-        <v>161.83799999999999</v>
+        <v>90.203999999999994</v>
       </c>
       <c r="J15">
-        <v>10943.281999999999</v>
+        <v>5791.2979999999998</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="M15">
-        <v>-1571.0340000000001</v>
+        <v>-86.837000000000003</v>
       </c>
       <c r="N15">
-        <v>432.40699999999998</v>
+        <v>810.149</v>
       </c>
       <c r="O15">
-        <v>11764.797</v>
+        <v>6847.009</v>
       </c>
       <c r="P15">
-        <v>10947.951999999999</v>
+        <v>6298.098</v>
       </c>
       <c r="Q15">
-        <v>-16.324999999999999</v>
+        <v>21.948</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>11124.834000000001</v>
+        <v>5610.2190000000001</v>
       </c>
       <c r="U15">
-        <v>37.209000000000003</v>
+        <v>71.527000000000001</v>
       </c>
       <c r="V15">
-        <v>336.88200000000001</v>
+        <v>177.999</v>
       </c>
       <c r="W15">
-        <v>-235.31800000000001</v>
+        <v>-133.43299999999999</v>
       </c>
       <c r="X15">
-        <v>-51.45</v>
+        <v>203.05500000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1.429</v>
+        <v>-380.25200000000001</v>
       </c>
       <c r="AA15">
-        <v>79.135000000000005</v>
+        <v>111.98099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>112.69</v>
+        <v>122.206</v>
       </c>
       <c r="D16">
-        <v>652.56799999999998</v>
+        <v>437.096</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="F16">
-        <v>432.19799999999998</v>
+        <v>297.95999999999998</v>
       </c>
       <c r="G16">
-        <v>161.99199999999999</v>
+        <v>145.25399999999999</v>
       </c>
       <c r="H16">
-        <v>22991.401999999998</v>
+        <v>12550.795</v>
       </c>
       <c r="I16">
-        <v>168.22499999999999</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="J16">
-        <v>10576.212</v>
+        <v>5629.0240000000003</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>942.697</v>
+        <v>1049.116</v>
       </c>
       <c r="O16">
-        <v>11922.733</v>
+        <v>6929.7510000000002</v>
       </c>
       <c r="P16">
-        <v>11084.388999999999</v>
+        <v>6377.0240000000003</v>
       </c>
       <c r="Q16">
-        <v>38.923000000000002</v>
+        <v>71.724999999999994</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>11068.669</v>
+        <v>5621.0439999999999</v>
       </c>
       <c r="U16">
-        <v>76.132000000000005</v>
+        <v>143.25200000000001</v>
       </c>
       <c r="V16">
-        <v>282.59699999999998</v>
+        <v>187.001</v>
       </c>
       <c r="W16">
-        <v>-181.59700000000001</v>
+        <v>-134.815</v>
       </c>
       <c r="X16">
-        <v>-55.811</v>
+        <v>-80.555999999999997</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>53.707999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="AA16">
-        <v>112.69</v>
+        <v>122.206</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>221.744</v>
+        <v>87.509</v>
       </c>
       <c r="D17">
-        <v>664.07799999999997</v>
+        <v>456.89299999999997</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.2090000000000001</v>
       </c>
       <c r="F17">
-        <v>443.71100000000001</v>
+        <v>306.27199999999999</v>
       </c>
       <c r="G17">
-        <v>117.101</v>
+        <v>68.201999999999998</v>
       </c>
       <c r="H17">
-        <v>23008.094000000001</v>
+        <v>12533.458000000001</v>
       </c>
       <c r="I17">
-        <v>203.07</v>
+        <v>119.821</v>
       </c>
       <c r="J17">
-        <v>10660.146000000001</v>
+        <v>6345.9189999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>780.68</v>
+        <v>330.25099999999998</v>
       </c>
       <c r="O17">
-        <v>11860.522999999999</v>
+        <v>6983.049</v>
       </c>
       <c r="P17">
-        <v>10963.018</v>
+        <v>6345.9189999999999</v>
       </c>
       <c r="Q17">
-        <v>-44.654000000000003</v>
+        <v>-78.259</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>11147.571</v>
+        <v>5550.4089999999997</v>
       </c>
       <c r="U17">
-        <v>31.478000000000002</v>
+        <v>64.992999999999995</v>
       </c>
       <c r="V17">
-        <v>394.79199999999997</v>
+        <v>213.191</v>
       </c>
       <c r="W17">
-        <v>-181.75800000000001</v>
+        <v>-135.00200000000001</v>
       </c>
       <c r="X17">
-        <v>-278.42399999999998</v>
+        <v>-169.59700000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>7.3940000000000001</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="AA17">
-        <v>221.744</v>
+        <v>87.509</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>217.739</v>
+        <v>150.63300000000001</v>
       </c>
       <c r="D18">
-        <v>664.66</v>
+        <v>427.90899999999999</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.681</v>
       </c>
       <c r="F18">
-        <v>453.27300000000002</v>
+        <v>290.11900000000003</v>
       </c>
       <c r="G18">
-        <v>114.312</v>
+        <v>85.186000000000007</v>
       </c>
       <c r="H18">
-        <v>22950.614000000001</v>
+        <v>12645.275</v>
       </c>
       <c r="I18">
-        <v>153.59</v>
+        <v>87.421999999999997</v>
       </c>
       <c r="J18">
-        <v>10844.861000000001</v>
+        <v>6459.8059999999996</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>445.8</v>
+        <v>300.27</v>
       </c>
       <c r="O18">
-        <v>11742.105</v>
+        <v>7037.165</v>
       </c>
       <c r="P18">
-        <v>10858.965</v>
+        <v>6459.8059999999996</v>
       </c>
       <c r="Q18">
-        <v>8.6020000000000003</v>
+        <v>18.512</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="T18">
-        <v>11208.509</v>
+        <v>5608.11</v>
       </c>
       <c r="U18">
-        <v>40.08</v>
+        <v>83.504999999999995</v>
       </c>
       <c r="V18">
-        <v>309.80200000000002</v>
+        <v>139.559</v>
       </c>
       <c r="W18">
-        <v>-182.131</v>
+        <v>-135.63999999999999</v>
       </c>
       <c r="X18">
-        <v>-307.17599999999999</v>
+        <v>-70.757999999999996</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>25.486000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="AA18">
-        <v>217.739</v>
+        <v>150.63300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>182.52199999999999</v>
+        <v>227.03899999999999</v>
       </c>
       <c r="D19">
-        <v>666.37099999999998</v>
+        <v>398.99599999999998</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F19">
-        <v>432.61399999999998</v>
+        <v>226.91</v>
       </c>
       <c r="G19">
-        <v>260.11</v>
+        <v>91.415999999999997</v>
       </c>
       <c r="H19">
-        <v>23029.047999999999</v>
+        <v>12697.334999999999</v>
       </c>
       <c r="I19">
-        <v>202.11</v>
+        <v>94.281000000000006</v>
       </c>
       <c r="J19">
-        <v>10173.687</v>
+        <v>5920.7929999999997</v>
       </c>
       <c r="K19">
-        <v>340.82600000000002</v>
+        <v>163</v>
       </c>
       <c r="L19">
-        <v>-814.6</v>
+        <v>-403</v>
       </c>
       <c r="M19">
-        <v>-2324.0720000000001</v>
+        <v>-134.255</v>
       </c>
       <c r="N19">
-        <v>1207.569</v>
+        <v>788</v>
       </c>
       <c r="O19">
-        <v>11813.593000000001</v>
+        <v>7009.835</v>
       </c>
       <c r="P19">
-        <v>10885.522000000001</v>
+        <v>6407.7929999999997</v>
       </c>
       <c r="Q19">
-        <v>9.3379999999999992</v>
+        <v>7.5629999999999997</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>11215.455</v>
+        <v>5687.5</v>
       </c>
       <c r="U19">
-        <v>49.417999999999999</v>
+        <v>91.067999999999998</v>
       </c>
       <c r="V19">
-        <v>347.89499999999998</v>
+        <v>176.911</v>
       </c>
       <c r="W19">
-        <v>-182.29900000000001</v>
+        <v>-136.31399999999999</v>
       </c>
       <c r="X19">
-        <v>-159.33500000000001</v>
+        <v>-301.44299999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>16.559000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="AA19">
-        <v>182.52199999999999</v>
+        <v>227.03899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>286.42</v>
+        <v>141.34399999999999</v>
       </c>
       <c r="D20">
-        <v>679.11199999999997</v>
+        <v>415.07299999999998</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="F20">
-        <v>456.19600000000003</v>
+        <v>237.696</v>
       </c>
       <c r="G20">
-        <v>199.572</v>
+        <v>103.694</v>
       </c>
       <c r="H20">
-        <v>23081.83</v>
+        <v>12908.036</v>
       </c>
       <c r="I20">
-        <v>193.096</v>
+        <v>104.751</v>
       </c>
       <c r="J20">
-        <v>10784.975</v>
+        <v>6333.6589999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>532.20000000000005</v>
+        <v>638.298</v>
       </c>
       <c r="O20">
-        <v>11748.919</v>
+        <v>7294.2359999999999</v>
       </c>
       <c r="P20">
-        <v>10827.906999999999</v>
+        <v>6652.6589999999997</v>
       </c>
       <c r="Q20">
-        <v>42.691000000000003</v>
+        <v>11.683999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>11332.911</v>
+        <v>5613.8</v>
       </c>
       <c r="U20">
-        <v>92.108999999999995</v>
+        <v>102.752</v>
       </c>
       <c r="V20">
-        <v>327.15199999999999</v>
+        <v>180.08699999999999</v>
       </c>
       <c r="W20">
-        <v>-201.86600000000001</v>
+        <v>-136.97999999999999</v>
       </c>
       <c r="X20">
-        <v>-258.13400000000001</v>
+        <v>-37.313000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5.1890000000000001</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="AA20">
-        <v>286.42</v>
+        <v>141.34399999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>196.69200000000001</v>
+        <v>267.524</v>
       </c>
       <c r="D21">
-        <v>696.28899999999999</v>
+        <v>430.52300000000002</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F21">
-        <v>468.85</v>
+        <v>234.654</v>
       </c>
       <c r="G21">
-        <v>182.79900000000001</v>
+        <v>307.87299999999999</v>
       </c>
       <c r="H21">
-        <v>23008.804</v>
+        <v>13311.829</v>
       </c>
       <c r="I21">
-        <v>253.02699999999999</v>
+        <v>124.908</v>
       </c>
       <c r="J21">
-        <v>10771.198</v>
+        <v>6204.92</v>
       </c>
       <c r="K21">
-        <v>29.995999999999999</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>581.41200000000003</v>
+        <v>895.28099999999995</v>
       </c>
       <c r="O21">
-        <v>11781.555</v>
+        <v>7641.0720000000001</v>
       </c>
       <c r="P21">
-        <v>10804.414000000001</v>
+        <v>6767.52</v>
       </c>
       <c r="Q21">
-        <v>-54.743000000000002</v>
+        <v>204.18100000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>11227.249</v>
+        <v>5670.7569999999996</v>
       </c>
       <c r="U21">
-        <v>37.366</v>
+        <v>306.93299999999999</v>
       </c>
       <c r="V21">
-        <v>388.29899999999998</v>
+        <v>219.95599999999999</v>
       </c>
       <c r="W21">
-        <v>-201.96</v>
+        <v>-137.197</v>
       </c>
       <c r="X21">
-        <v>-237.87899999999999</v>
+        <v>-214.251</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0.88600000000000001</v>
+        <v>-0.96699999999999997</v>
       </c>
       <c r="AA21">
-        <v>196.69200000000001</v>
+        <v>267.524</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>204.48599999999999</v>
+        <v>225.886</v>
       </c>
       <c r="D22">
-        <v>703.19299999999998</v>
+        <v>438.536</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F22">
-        <v>482.137</v>
+        <v>245.286</v>
       </c>
       <c r="G22">
-        <v>2282.9589999999998</v>
+        <v>89.617000000000004</v>
       </c>
       <c r="H22">
-        <v>23110.196</v>
+        <v>14108.751</v>
       </c>
       <c r="I22">
-        <v>187.124</v>
+        <v>115.54300000000001</v>
       </c>
       <c r="J22">
-        <v>10534.09</v>
+        <v>7591.0730000000003</v>
       </c>
       <c r="K22">
-        <v>387.27600000000001</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>869.67200000000003</v>
+        <v>339.79599999999999</v>
       </c>
       <c r="O22">
-        <v>11847.058000000001</v>
+        <v>8291.2279999999992</v>
       </c>
       <c r="P22">
-        <v>10922.039000000001</v>
+        <v>7591.0730000000003</v>
       </c>
       <c r="Q22">
-        <v>4.91</v>
+        <v>-218.10499999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="T22">
-        <v>11263.138000000001</v>
+        <v>5817.5230000000001</v>
       </c>
       <c r="U22">
-        <v>42.276000000000003</v>
+        <v>88.828000000000003</v>
       </c>
       <c r="V22">
-        <v>293.15300000000002</v>
+        <v>121.577</v>
       </c>
       <c r="W22">
-        <v>-201.98</v>
+        <v>-136.60499999999999</v>
       </c>
       <c r="X22">
-        <v>-20.484000000000002</v>
+        <v>452</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8.0259999999999998</v>
+        <v>6.17</v>
       </c>
       <c r="AA22">
-        <v>204.48599999999999</v>
+        <v>225.886</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>3587.7579999999998</v>
+        <v>377.815</v>
       </c>
       <c r="D23">
-        <v>619.08299999999997</v>
+        <v>447.286</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="F23">
-        <v>406.22699999999998</v>
+        <v>259.93200000000002</v>
       </c>
       <c r="G23">
-        <v>620.32299999999998</v>
+        <v>98.141000000000005</v>
       </c>
       <c r="H23">
-        <v>21301.292000000001</v>
+        <v>14180.906999999999</v>
       </c>
       <c r="I23">
-        <v>215.81700000000001</v>
+        <v>105.108</v>
       </c>
       <c r="J23">
-        <v>8519.9</v>
+        <v>6906.7910000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-1958.472</v>
+        <v>-2508.5</v>
       </c>
       <c r="M23">
-        <v>-1984.809</v>
+        <v>-147.99299999999999</v>
       </c>
       <c r="N23">
-        <v>544.03099999999995</v>
+        <v>853.24</v>
       </c>
       <c r="O23">
-        <v>9471.4969999999994</v>
+        <v>8122.9560000000001</v>
       </c>
       <c r="P23">
-        <v>8587.3970000000008</v>
+        <v>7439.7910000000002</v>
       </c>
       <c r="Q23">
-        <v>325.77300000000002</v>
+        <v>-2.0510000000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>11829.795</v>
+        <v>6057.951</v>
       </c>
       <c r="U23">
-        <v>368.04899999999998</v>
+        <v>86.777000000000001</v>
       </c>
       <c r="V23">
-        <v>201.38200000000001</v>
+        <v>161.077</v>
       </c>
       <c r="W23">
-        <v>-123.425</v>
+        <v>-139.06100000000001</v>
       </c>
       <c r="X23">
-        <v>-5626.8450000000003</v>
+        <v>-395.39699999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.86599999999999999</v>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="AA23">
-        <v>3587.7579999999998</v>
+        <v>377.815</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>218.839</v>
+        <v>160.15700000000001</v>
       </c>
       <c r="D24">
-        <v>595.154</v>
+        <v>423.44499999999999</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.879</v>
       </c>
       <c r="F24">
-        <v>400.44099999999997</v>
+        <v>250.29499999999999</v>
       </c>
       <c r="G24">
-        <v>587.47500000000002</v>
+        <v>78.850999999999999</v>
       </c>
       <c r="H24">
-        <v>21229.921999999999</v>
+        <v>14457.873</v>
       </c>
       <c r="I24">
-        <v>186.62899999999999</v>
+        <v>113.855</v>
       </c>
       <c r="J24">
-        <v>8507.152</v>
+        <v>7170.1090000000004</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>445.18900000000002</v>
+        <v>657.62300000000005</v>
       </c>
       <c r="O24">
-        <v>9344.9940000000006</v>
+        <v>8385.0769999999993</v>
       </c>
       <c r="P24">
-        <v>8516.134</v>
+        <v>7482.1239999999998</v>
       </c>
       <c r="Q24">
-        <v>129.79400000000001</v>
+        <v>-14.605</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>11884.928</v>
+        <v>6072.7960000000003</v>
       </c>
       <c r="U24">
-        <v>497.84300000000002</v>
+        <v>72.171999999999997</v>
       </c>
       <c r="V24">
-        <v>273.69400000000002</v>
+        <v>202.654</v>
       </c>
       <c r="W24">
-        <v>-184.82400000000001</v>
+        <v>-138.773</v>
       </c>
       <c r="X24">
-        <v>-264.67099999999999</v>
+        <v>143.523</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>66.356999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="AA24">
-        <v>218.839</v>
+        <v>160.15700000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>208.316</v>
+        <v>69.811000000000007</v>
       </c>
       <c r="D25">
-        <v>606.07399999999996</v>
+        <v>465.16</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.452</v>
       </c>
       <c r="F25">
-        <v>400.99799999999999</v>
+        <v>268.70800000000003</v>
       </c>
       <c r="G25">
-        <v>655.37300000000005</v>
+        <v>83.676000000000002</v>
       </c>
       <c r="H25">
-        <v>21297.743999999999</v>
+        <v>14970.066000000001</v>
       </c>
       <c r="I25">
-        <v>199.79499999999999</v>
+        <v>146.09100000000001</v>
       </c>
       <c r="J25">
-        <v>8496.8490000000002</v>
+        <v>7876.0429999999997</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1607.45</v>
+        <v>620.11099999999999</v>
       </c>
       <c r="O25">
-        <v>10517.050999999999</v>
+        <v>9048.8950000000004</v>
       </c>
       <c r="P25">
-        <v>8503.7000000000007</v>
+        <v>8132.1310000000003</v>
       </c>
       <c r="Q25">
-        <v>19.742999999999999</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>10780.692999999999</v>
+        <v>5921.1710000000003</v>
       </c>
       <c r="U25">
-        <v>517.58600000000001</v>
+        <v>76.323999999999998</v>
       </c>
       <c r="V25">
-        <v>344.245</v>
+        <v>221.55799999999999</v>
       </c>
       <c r="W25">
-        <v>-184.90700000000001</v>
+        <v>-138.96600000000001</v>
       </c>
       <c r="X25">
-        <v>-204.66</v>
+        <v>363.77300000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>15.564</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AA25">
-        <v>208.316</v>
+        <v>69.811000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>277.25</v>
+        <v>465.06099999999998</v>
       </c>
       <c r="D26">
-        <v>605.48900000000003</v>
+        <v>453.41</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>411.90899999999999</v>
+        <v>263.36900000000003</v>
       </c>
       <c r="G26">
-        <v>220.94499999999999</v>
+        <v>652.10199999999998</v>
       </c>
       <c r="H26">
-        <v>20704.148000000001</v>
+        <v>15062.218999999999</v>
       </c>
       <c r="I26">
-        <v>147.482</v>
+        <v>96.698999999999998</v>
       </c>
       <c r="J26">
-        <v>8967.26</v>
+        <v>8057.6559999999999</v>
       </c>
       <c r="K26">
-        <v>19.998000000000001</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>420.72199999999998</v>
+        <v>339.25299999999999</v>
       </c>
       <c r="O26">
-        <v>9801.0720000000001</v>
+        <v>8766.5380000000005</v>
       </c>
       <c r="P26">
-        <v>8987.2579999999998</v>
+        <v>8057.6559999999999</v>
       </c>
       <c r="Q26">
-        <v>-411.33699999999999</v>
+        <v>183.953</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="T26">
-        <v>10903.075999999999</v>
+        <v>6295.6809999999996</v>
       </c>
       <c r="U26">
-        <v>77.206999999999994</v>
+        <v>260.27699999999999</v>
       </c>
       <c r="V26">
-        <v>394.80200000000002</v>
+        <v>170.17699999999999</v>
       </c>
       <c r="W26">
-        <v>-180.887</v>
+        <v>-136.59899999999999</v>
       </c>
       <c r="X26">
-        <v>-957.91600000000005</v>
+        <v>-436.44400000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1.44</v>
+        <v>-0.02</v>
       </c>
       <c r="AA26">
-        <v>277.25</v>
+        <v>465.06099999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>143.74199999999999</v>
+        <v>126.23699999999999</v>
       </c>
       <c r="D27">
-        <v>604.1</v>
+        <v>470.79700000000003</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>397.512</v>
+        <v>266.459</v>
       </c>
       <c r="G27">
-        <v>118.943</v>
+        <v>364.8</v>
       </c>
       <c r="H27">
-        <v>20608.338</v>
+        <v>15321.894</v>
       </c>
       <c r="I27">
-        <v>165.64</v>
+        <v>118.319</v>
       </c>
       <c r="J27">
-        <v>8615.2389999999996</v>
+        <v>8150.9809999999998</v>
       </c>
       <c r="K27">
-        <v>314.68599999999998</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-1015.5</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-353.738</v>
+        <v>-3706.1570000000002</v>
       </c>
       <c r="N27">
-        <v>746.35</v>
+        <v>662.12300000000005</v>
       </c>
       <c r="O27">
-        <v>9733.1790000000001</v>
+        <v>9241.1450000000004</v>
       </c>
       <c r="P27">
-        <v>8929.9249999999993</v>
+        <v>8473.9050000000007</v>
       </c>
       <c r="Q27">
-        <v>-32.865000000000002</v>
+        <v>-88.534999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>10875.159</v>
+        <v>6080.7489999999998</v>
       </c>
       <c r="U27">
-        <v>42.139000000000003</v>
+        <v>171.74199999999999</v>
       </c>
       <c r="V27">
-        <v>303.904</v>
+        <v>167.1</v>
       </c>
       <c r="W27">
-        <v>-185.84700000000001</v>
+        <v>-143.26</v>
       </c>
       <c r="X27">
-        <v>-264.12700000000001</v>
+        <v>67.388999999999996</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1.591</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>143.74199999999999</v>
+        <v>126.23699999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>196.041</v>
+        <v>282.40100000000001</v>
       </c>
       <c r="D28">
-        <v>612.48</v>
+        <v>475.07900000000001</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>404.072</v>
+        <v>281.971</v>
       </c>
       <c r="G28">
-        <v>296.83100000000002</v>
+        <v>421.3</v>
       </c>
       <c r="H28">
-        <v>20636.575000000001</v>
+        <v>15668.664000000001</v>
       </c>
       <c r="I28">
-        <v>137.91999999999999</v>
+        <v>111.14</v>
       </c>
       <c r="J28">
-        <v>8199.7279999999992</v>
+        <v>9133.68</v>
       </c>
       <c r="K28">
-        <v>764.36099999999999</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1142.8209999999999</v>
+        <v>549.28899999999999</v>
       </c>
       <c r="O28">
-        <v>9730.1990000000005</v>
+        <v>10078.708000000001</v>
       </c>
       <c r="P28">
-        <v>8964.0889999999999</v>
+        <v>9331.5339999999997</v>
       </c>
       <c r="Q28">
-        <v>126.89</v>
+        <v>-105.476</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>10906.376</v>
+        <v>5589.9560000000001</v>
       </c>
       <c r="U28">
-        <v>37.719000000000001</v>
+        <v>66.266000000000005</v>
       </c>
       <c r="V28">
-        <v>255.209</v>
+        <v>188.69300000000001</v>
       </c>
       <c r="W28">
-        <v>-185.715</v>
+        <v>-142.64500000000001</v>
       </c>
       <c r="X28">
-        <v>-156.35400000000001</v>
+        <v>-160.96199999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-0.78400000000000003</v>
+        <v>-0.187</v>
       </c>
       <c r="AA28">
-        <v>196.041</v>
+        <v>282.40100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>138.22900000000001</v>
+        <v>457.70699999999999</v>
       </c>
       <c r="D29">
-        <v>624.12199999999996</v>
+        <v>501.10199999999998</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>414.45299999999997</v>
+        <v>295.37700000000001</v>
       </c>
       <c r="G29">
-        <v>87.569000000000003</v>
+        <v>66.134</v>
       </c>
       <c r="H29">
-        <v>20697.832999999999</v>
+        <v>15789.584999999999</v>
       </c>
       <c r="I29">
-        <v>167.98400000000001</v>
+        <v>154.363</v>
       </c>
       <c r="J29">
-        <v>8762.4279999999999</v>
+        <v>9420.8439999999991</v>
       </c>
       <c r="K29">
-        <v>229.84399999999999</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>663.20799999999997</v>
+        <v>488.233</v>
       </c>
       <c r="O29">
-        <v>9823.5159999999996</v>
+        <v>10285.968999999999</v>
       </c>
       <c r="P29">
-        <v>8992.2720000000008</v>
+        <v>9527.5329999999994</v>
       </c>
       <c r="Q29">
-        <v>-218.93700000000001</v>
+        <v>-3.532</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>10874.316999999999</v>
+        <v>5503.616</v>
       </c>
       <c r="U29">
-        <v>46.564999999999998</v>
+        <v>62.734000000000002</v>
       </c>
       <c r="V29">
-        <v>411.02300000000002</v>
+        <v>233.04300000000001</v>
       </c>
       <c r="W29">
-        <v>-185.023</v>
+        <v>-137.315</v>
       </c>
       <c r="X29">
-        <v>-158.792</v>
+        <v>-458.20100000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-2.62</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AA29">
-        <v>138.22900000000001</v>
+        <v>457.70699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>125.44199999999999</v>
+        <v>123.277</v>
       </c>
       <c r="D30">
-        <v>630.70399999999995</v>
+        <v>500.07900000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>429.1</v>
+        <v>307.70400000000001</v>
       </c>
       <c r="G30">
-        <v>105.905</v>
+        <v>304.10700000000003</v>
       </c>
       <c r="H30">
-        <v>20570.598999999998</v>
+        <v>15689.777</v>
       </c>
       <c r="I30">
-        <v>114.76600000000001</v>
+        <v>109.38500000000001</v>
       </c>
       <c r="J30">
-        <v>8657.5339999999997</v>
+        <v>9508.7330000000002</v>
       </c>
       <c r="K30">
-        <v>299.75700000000001</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>666.98299999999995</v>
+        <v>375.346</v>
       </c>
       <c r="O30">
-        <v>9729.7810000000009</v>
+        <v>10269.213</v>
       </c>
       <c r="P30">
-        <v>8958.8880000000008</v>
+        <v>9508.7330000000002</v>
       </c>
       <c r="Q30">
-        <v>6.5860000000000003</v>
+        <v>-11.903</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2700</v>
+        <v>4800</v>
       </c>
       <c r="T30">
-        <v>10840.817999999999</v>
+        <v>5420.5640000000003</v>
       </c>
       <c r="U30">
-        <v>50.646999999999998</v>
+        <v>50.831000000000003</v>
       </c>
       <c r="V30">
-        <v>295.65199999999999</v>
+        <v>204.292</v>
       </c>
       <c r="W30">
-        <v>-185.881</v>
+        <v>-130.06899999999999</v>
       </c>
       <c r="X30">
-        <v>-210.54499999999999</v>
+        <v>-250.155</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-0.70499999999999996</v>
+        <v>0.109</v>
       </c>
       <c r="AA30">
-        <v>125.44199999999999</v>
+        <v>123.277</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>211.809</v>
+        <v>138.12299999999999</v>
       </c>
       <c r="D31">
-        <v>633.01599999999996</v>
+        <v>495.25900000000001</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>409.45600000000002</v>
+        <v>288.83</v>
       </c>
       <c r="G31">
-        <v>107.348</v>
+        <v>502.649</v>
       </c>
       <c r="H31">
-        <v>20383.87</v>
+        <v>16010.945</v>
       </c>
       <c r="I31">
-        <v>167.48099999999999</v>
+        <v>154.32300000000001</v>
       </c>
       <c r="J31">
-        <v>8425.1589999999997</v>
+        <v>9396.3449999999993</v>
       </c>
       <c r="K31">
-        <v>234.31800000000001</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-1588</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-727.35900000000004</v>
+        <v>-1054.5309999999999</v>
       </c>
       <c r="N31">
-        <v>685.27700000000004</v>
+        <v>841.48599999999999</v>
       </c>
       <c r="O31">
-        <v>9504.2099999999991</v>
+        <v>10589.251</v>
       </c>
       <c r="P31">
-        <v>8666.4079999999994</v>
+        <v>9863.4320000000007</v>
       </c>
       <c r="Q31">
-        <v>-6.0510000000000002</v>
+        <v>451.81799999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>2700</v>
+        <v>4700</v>
       </c>
       <c r="T31">
-        <v>10879.66</v>
+        <v>5421.6940000000004</v>
       </c>
       <c r="U31">
-        <v>44.453000000000003</v>
+        <v>502.649</v>
       </c>
       <c r="V31">
-        <v>361.01799999999997</v>
+        <v>166.476</v>
       </c>
       <c r="W31">
-        <v>-186.25700000000001</v>
+        <v>-133.74799999999999</v>
       </c>
       <c r="X31">
-        <v>-514.36699999999996</v>
+        <v>190.304</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-2.7989999999999999</v>
+        <v>2.629</v>
       </c>
       <c r="AA31">
-        <v>211.809</v>
+        <v>138.12299999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>113.602</v>
+        <v>130.251</v>
       </c>
       <c r="D32">
-        <v>639.80799999999999</v>
+        <v>486.94600000000003</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>423.09800000000001</v>
+        <v>293.17500000000001</v>
       </c>
       <c r="G32">
-        <v>105.608</v>
+        <v>490.70699999999999</v>
       </c>
       <c r="H32">
-        <v>20406.581999999999</v>
+        <v>16083.223</v>
       </c>
       <c r="I32">
-        <v>146.41499999999999</v>
+        <v>148.66</v>
       </c>
       <c r="J32">
-        <v>8426.9619999999995</v>
+        <v>9521.2180000000008</v>
       </c>
       <c r="K32">
-        <v>345.80700000000002</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>767.37099999999998</v>
+        <v>755.62099999999998</v>
       </c>
       <c r="O32">
-        <v>9600.3130000000001</v>
+        <v>10644.87</v>
       </c>
       <c r="P32">
-        <v>8777.7479999999996</v>
+        <v>9869.7160000000003</v>
       </c>
       <c r="Q32">
-        <v>-5.8339999999999996</v>
+        <v>-229.04900000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>10806.269</v>
+        <v>5438.3530000000001</v>
       </c>
       <c r="U32">
-        <v>34.506999999999998</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="V32">
-        <v>324.43599999999998</v>
+        <v>222.65</v>
       </c>
       <c r="W32">
-        <v>-199.60300000000001</v>
+        <v>-133.946</v>
       </c>
       <c r="X32">
-        <v>-98.796000000000006</v>
+        <v>-143.41</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>113.602</v>
+        <v>130.251</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>214.93700000000001</v>
+        <v>175.874</v>
       </c>
       <c r="D33">
-        <v>652.86699999999996</v>
+        <v>511.00599999999997</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>432.69099999999997</v>
+        <v>303.40600000000001</v>
       </c>
       <c r="G33">
-        <v>116.276</v>
+        <v>925.70799999999997</v>
       </c>
       <c r="H33">
-        <v>20542.150000000001</v>
+        <v>16367.324000000001</v>
       </c>
       <c r="I33">
-        <v>182.446</v>
+        <v>173.65799999999999</v>
       </c>
       <c r="J33">
-        <v>8324.4259999999995</v>
+        <v>10084.892</v>
       </c>
       <c r="K33">
-        <v>499.36700000000002</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>960.93200000000002</v>
+        <v>411.37200000000001</v>
       </c>
       <c r="O33">
-        <v>9693.82</v>
+        <v>10873.959000000001</v>
       </c>
       <c r="P33">
-        <v>8826.8809999999994</v>
+        <v>10101.405000000001</v>
       </c>
       <c r="Q33">
-        <v>-0.127</v>
+        <v>256.45</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>2700</v>
+        <v>4700</v>
       </c>
       <c r="T33">
-        <v>10848.33</v>
+        <v>5493.3649999999998</v>
       </c>
       <c r="U33">
-        <v>32.994999999999997</v>
+        <v>530.04999999999995</v>
       </c>
       <c r="V33">
-        <v>358.73700000000002</v>
+        <v>181.38300000000001</v>
       </c>
       <c r="W33">
-        <v>-199.642</v>
+        <v>-134.27099999999999</v>
       </c>
       <c r="X33">
-        <v>-174.22</v>
+        <v>122.405</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-1.7609999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="AA33">
-        <v>214.93700000000001</v>
+        <v>175.874</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>117.187</v>
+        <v>-36.625999999999998</v>
       </c>
       <c r="D34">
-        <v>652.74300000000005</v>
+        <v>482.45800000000003</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>433.55500000000001</v>
+        <v>294.38400000000001</v>
       </c>
       <c r="G34">
-        <v>118.313</v>
+        <v>1098.7909999999999</v>
       </c>
       <c r="H34">
-        <v>20394.208999999999</v>
+        <v>16535.11</v>
       </c>
       <c r="I34">
-        <v>102.471</v>
+        <v>108.46299999999999</v>
       </c>
       <c r="J34">
-        <v>7871.3540000000003</v>
+        <v>10483.941999999999</v>
       </c>
       <c r="K34">
-        <v>499.18299999999999</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1330.4069999999999</v>
+        <v>370.97800000000001</v>
       </c>
       <c r="O34">
-        <v>9615.4539999999997</v>
+        <v>11202.011</v>
       </c>
       <c r="P34">
-        <v>8830.0669999999991</v>
+        <v>10490.768</v>
       </c>
       <c r="Q34">
-        <v>27.562999999999999</v>
+        <v>360.74400000000003</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2700</v>
+        <v>4700</v>
       </c>
       <c r="T34">
-        <v>10778.754999999999</v>
+        <v>5333.0990000000002</v>
       </c>
       <c r="U34">
-        <v>47.442</v>
+        <v>890.79399999999998</v>
       </c>
       <c r="V34">
-        <v>312.10399999999998</v>
+        <v>184.74299999999999</v>
       </c>
       <c r="W34">
-        <v>-200.483</v>
+        <v>-134.751</v>
       </c>
       <c r="X34">
-        <v>-176.52699999999999</v>
+        <v>259.44</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1.7110000000000001</v>
+        <v>-158.36699999999999</v>
       </c>
       <c r="AA34">
-        <v>117.187</v>
+        <v>-36.625999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>104.539</v>
+        <v>80.795000000000002</v>
       </c>
       <c r="D35">
-        <v>662.49400000000003</v>
+        <v>483.07799999999997</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>429.58600000000001</v>
+        <v>284.58999999999997</v>
       </c>
       <c r="G35">
-        <v>94.171000000000006</v>
+        <v>615.77200000000005</v>
       </c>
       <c r="H35">
-        <v>20768.811000000002</v>
+        <v>16035.656000000001</v>
       </c>
       <c r="I35">
-        <v>152.83099999999999</v>
+        <v>128.00800000000001</v>
       </c>
       <c r="J35">
-        <v>8607.8259999999991</v>
+        <v>9463.4689999999991</v>
       </c>
       <c r="K35">
-        <v>344.84399999999999</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-4140</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1996.6189999999999</v>
+        <v>-454.06299999999999</v>
       </c>
       <c r="N35">
-        <v>814.13199999999995</v>
+        <v>964.65099999999995</v>
       </c>
       <c r="O35">
-        <v>10069.744000000001</v>
+        <v>10735.145</v>
       </c>
       <c r="P35">
-        <v>9258.8649999999998</v>
+        <v>10082.635</v>
       </c>
       <c r="Q35">
-        <v>-22.806999999999999</v>
+        <v>-462.19799999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>2700</v>
+        <v>4600</v>
       </c>
       <c r="T35">
-        <v>10699.066999999999</v>
+        <v>5300.5110000000004</v>
       </c>
       <c r="U35">
-        <v>29.390999999999998</v>
+        <v>428.596</v>
       </c>
       <c r="V35">
-        <v>373.54500000000002</v>
+        <v>142.45099999999999</v>
       </c>
       <c r="W35">
-        <v>-199.749</v>
+        <v>-135.18700000000001</v>
       </c>
       <c r="X35">
-        <v>-49.317</v>
+        <v>-534.25</v>
       </c>
       <c r="Y35">
-        <v>282.23700000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-6.532</v>
+        <v>0.11</v>
       </c>
       <c r="AA35">
-        <v>104.539</v>
+        <v>80.795000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>308.96800000000002</v>
+        <v>100.205</v>
       </c>
       <c r="D36">
-        <v>669.37400000000002</v>
+        <v>478.47399999999999</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>445.09800000000001</v>
+        <v>290.46899999999999</v>
       </c>
       <c r="G36">
-        <v>309.46800000000002</v>
+        <v>825.67600000000004</v>
       </c>
       <c r="H36">
-        <v>20990.710999999999</v>
+        <v>15923.062</v>
       </c>
       <c r="I36">
-        <v>108.574</v>
+        <v>113.91500000000001</v>
       </c>
       <c r="J36">
-        <v>9130.4210000000003</v>
+        <v>9880.7999999999993</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>391.45299999999997</v>
+        <v>456.84800000000001</v>
       </c>
       <c r="O36">
-        <v>10175.125</v>
+        <v>10658.36</v>
       </c>
       <c r="P36">
-        <v>9412.0650000000005</v>
+        <v>9973.98</v>
       </c>
       <c r="Q36">
-        <v>215.96199999999999</v>
+        <v>238.899</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>10815.585999999999</v>
+        <v>5264.7020000000002</v>
       </c>
       <c r="U36">
-        <v>251.273</v>
+        <v>667.495</v>
       </c>
       <c r="V36">
-        <v>317.22800000000001</v>
+        <v>223.15899999999999</v>
       </c>
       <c r="W36">
-        <v>-210.96700000000001</v>
+        <v>-135.68899999999999</v>
       </c>
       <c r="X36">
-        <v>-79.146000000000001</v>
+        <v>-218.541</v>
       </c>
       <c r="Y36">
-        <v>281.62</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>75.953000000000003</v>
+        <v>131.345</v>
       </c>
       <c r="AA36">
-        <v>308.96800000000002</v>
+        <v>100.205</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>267.10599999999999</v>
+        <v>135.98099999999999</v>
       </c>
       <c r="D37">
-        <v>685.12</v>
+        <v>480.24099999999999</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>460.66800000000001</v>
+        <v>282.70100000000002</v>
       </c>
       <c r="G37">
-        <v>84.596000000000004</v>
+        <v>1016.564</v>
       </c>
       <c r="H37">
-        <v>21054.056</v>
+        <v>15791.396000000001</v>
       </c>
       <c r="I37">
-        <v>151.68</v>
+        <v>131.72999999999999</v>
       </c>
       <c r="J37">
-        <v>8637.5550000000003</v>
+        <v>9744.9869999999992</v>
       </c>
       <c r="K37">
-        <v>354.38099999999997</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>797.94399999999996</v>
+        <v>395.06299999999999</v>
       </c>
       <c r="O37">
-        <v>10152.058000000001</v>
+        <v>10464.788</v>
       </c>
       <c r="P37">
-        <v>9325.2479999999996</v>
+        <v>9835.1200000000008</v>
       </c>
       <c r="Q37">
-        <v>-224.87200000000001</v>
+        <v>-29.907</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>2700</v>
+        <v>4300</v>
       </c>
       <c r="T37">
-        <v>10901.998</v>
+        <v>5326.6080000000002</v>
       </c>
       <c r="U37">
-        <v>28.777000000000001</v>
+        <v>637.58799999999997</v>
       </c>
       <c r="V37">
-        <v>403.40699999999998</v>
+        <v>166.65799999999999</v>
       </c>
       <c r="W37">
-        <v>-211.99299999999999</v>
+        <v>-135.76900000000001</v>
       </c>
       <c r="X37">
-        <v>-339.25400000000002</v>
+        <v>-262.58699999999999</v>
       </c>
       <c r="Y37">
-        <v>333.31200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-0.501</v>
+        <v>36.872</v>
       </c>
       <c r="AA37">
-        <v>267.10599999999999</v>
+        <v>135.98099999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>289.76400000000001</v>
+        <v>45.292000000000002</v>
       </c>
       <c r="D38">
-        <v>683.89499999999998</v>
+        <v>414.71</v>
       </c>
       <c r="E38">
-        <v>31.495000000000001</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>457.20299999999997</v>
+        <v>248.23</v>
       </c>
       <c r="G38">
-        <v>148.494</v>
+        <v>636.80499999999995</v>
       </c>
       <c r="H38">
-        <v>21172.769</v>
+        <v>15417.514999999999</v>
       </c>
       <c r="I38">
-        <v>94.35</v>
+        <v>58.536999999999999</v>
       </c>
       <c r="J38">
-        <v>8019.1229999999996</v>
+        <v>9392.57</v>
       </c>
       <c r="K38">
-        <v>1017.833</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1397.3610000000001</v>
+        <v>264.22899999999998</v>
       </c>
       <c r="O38">
-        <v>10164.843000000001</v>
+        <v>9984.7219999999998</v>
       </c>
       <c r="P38">
-        <v>9368.2900000000009</v>
+        <v>9396.1470000000008</v>
       </c>
       <c r="Q38">
-        <v>32.402999999999999</v>
+        <v>-444.3</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="T38">
-        <v>11007.925999999999</v>
+        <v>5432.7929999999997</v>
       </c>
       <c r="U38">
-        <v>45.753</v>
+        <v>193.28800000000001</v>
       </c>
       <c r="V38">
-        <v>362.80399999999997</v>
+        <v>140.19399999999999</v>
       </c>
       <c r="W38">
-        <v>-211.49199999999999</v>
+        <v>-96.438000000000002</v>
       </c>
       <c r="X38">
-        <v>-216.75700000000001</v>
+        <v>-458.16899999999998</v>
       </c>
       <c r="Y38">
-        <v>331.334</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.53100000000000003</v>
+        <v>-23.875</v>
       </c>
       <c r="AA38">
-        <v>289.76400000000001</v>
+        <v>45.292000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>308.60599999999999</v>
+        <v>55.482999999999997</v>
       </c>
       <c r="D39">
-        <v>682.32899999999995</v>
+        <v>429.18</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>441.072</v>
+        <v>250.828</v>
       </c>
       <c r="G39">
-        <v>140.77000000000001</v>
+        <v>244.80099999999999</v>
       </c>
       <c r="H39">
-        <v>20919.317999999999</v>
+        <v>15518.413</v>
       </c>
       <c r="I39">
-        <v>165.696</v>
+        <v>95.046000000000006</v>
       </c>
       <c r="J39">
-        <v>8020.0529999999999</v>
+        <v>9400.8389999999999</v>
       </c>
       <c r="K39">
-        <v>612.65099999999995</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-2291</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-741.94100000000003</v>
+        <v>-1531.5930000000001</v>
       </c>
       <c r="N39">
-        <v>1077.425</v>
+        <v>366.70100000000002</v>
       </c>
       <c r="O39">
-        <v>9795.2900000000009</v>
+        <v>10075.387000000001</v>
       </c>
       <c r="P39">
-        <v>8964.384</v>
+        <v>9501.4930000000004</v>
       </c>
       <c r="Q39">
-        <v>23.771000000000001</v>
+        <v>-133.102</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>2600</v>
+        <v>4200</v>
       </c>
       <c r="T39">
-        <v>11124.028</v>
+        <v>5443.0259999999998</v>
       </c>
       <c r="U39">
-        <v>82.334999999999994</v>
+        <v>60.186</v>
       </c>
       <c r="V39">
-        <v>382.45100000000002</v>
+        <v>152.12</v>
       </c>
       <c r="W39">
-        <v>-212.012</v>
+        <v>-96.936999999999998</v>
       </c>
       <c r="X39">
-        <v>-624.68899999999996</v>
+        <v>-10.388</v>
       </c>
       <c r="Y39">
-        <v>330.71300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-5.4589999999999996</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="AA39">
-        <v>308.60599999999999</v>
+        <v>55.482999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>260.88799999999998</v>
+        <v>9.9610000000000003</v>
       </c>
       <c r="D40">
-        <v>653.53200000000004</v>
+        <v>435.83300000000003</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>430.43400000000003</v>
+        <v>266.10700000000003</v>
       </c>
       <c r="G40">
-        <v>245.53299999999999</v>
+        <v>168.83199999999999</v>
       </c>
       <c r="H40">
-        <v>20714.951000000001</v>
+        <v>15625.272000000001</v>
       </c>
       <c r="I40">
-        <v>109.776</v>
+        <v>81.790999999999997</v>
       </c>
       <c r="J40">
-        <v>8421.8590000000004</v>
+        <v>9565.7029999999995</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>409.57299999999998</v>
+        <v>440.976</v>
       </c>
       <c r="O40">
-        <v>9540.7800000000007</v>
+        <v>10315.672</v>
       </c>
       <c r="P40">
-        <v>8751.9940000000006</v>
+        <v>9725.0949999999993</v>
       </c>
       <c r="Q40">
-        <v>104.76300000000001</v>
+        <v>-12.204000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>11174.171</v>
+        <v>5309.6</v>
       </c>
       <c r="U40">
-        <v>187.416</v>
+        <v>47.981999999999999</v>
       </c>
       <c r="V40">
-        <v>252.63499999999999</v>
+        <v>204.62700000000001</v>
       </c>
       <c r="W40">
-        <v>-224.96</v>
+        <v>-98.843999999999994</v>
       </c>
       <c r="X40">
-        <v>-447.21</v>
+        <v>-5.024</v>
       </c>
       <c r="Y40">
-        <v>330.13499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-0.67600000000000005</v>
+        <v>25</v>
       </c>
       <c r="AA40">
-        <v>260.88799999999998</v>
+        <v>9.9610000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>91.286000000000001</v>
+        <v>28.783000000000001</v>
       </c>
       <c r="D41">
-        <v>622.43299999999999</v>
+        <v>453.96</v>
       </c>
       <c r="E41">
-        <v>34.69</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>393.899</v>
+        <v>273.803</v>
       </c>
       <c r="G41">
-        <v>269.904</v>
+        <v>168.297</v>
       </c>
       <c r="H41">
-        <v>20623.977999999999</v>
+        <v>16086.829</v>
       </c>
       <c r="I41">
-        <v>158.61099999999999</v>
+        <v>111.121</v>
       </c>
       <c r="J41">
-        <v>8396.73</v>
+        <v>10083.027</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>456.517</v>
+        <v>472.02800000000002</v>
       </c>
       <c r="O41">
-        <v>9575.9060000000009</v>
+        <v>10865.433000000001</v>
       </c>
       <c r="P41">
-        <v>8726.4140000000007</v>
+        <v>10269.906999999999</v>
       </c>
       <c r="Q41">
-        <v>-10.319000000000001</v>
+        <v>-4.3220000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>2600</v>
+        <v>4200</v>
       </c>
       <c r="T41">
-        <v>11048.072</v>
+        <v>5221.3959999999997</v>
       </c>
       <c r="U41">
-        <v>178.333</v>
+        <v>43.66</v>
       </c>
       <c r="V41">
-        <v>399.238</v>
+        <v>203.934</v>
       </c>
       <c r="W41">
-        <v>-225.01400000000001</v>
+        <v>-99.262</v>
       </c>
       <c r="X41">
-        <v>-260.66800000000001</v>
+        <v>217.63200000000001</v>
       </c>
       <c r="Y41">
-        <v>329.68400000000003</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-3.7999999999999999E-2</v>
+        <v>25.620999999999999</v>
       </c>
       <c r="AA41">
-        <v>91.286000000000001</v>
+        <v>28.783000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>189.38300000000001</v>
+      </c>
+      <c r="D42">
+        <v>454.29500000000002</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>279.74599999999998</v>
+      </c>
+      <c r="G42">
+        <v>686.32399999999996</v>
+      </c>
+      <c r="H42">
+        <v>16184.194</v>
+      </c>
+      <c r="I42">
+        <v>39.451999999999998</v>
+      </c>
+      <c r="J42">
+        <v>9948.0759999999991</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>318.06599999999997</v>
+      </c>
+      <c r="O42">
+        <v>10592.078</v>
+      </c>
+      <c r="P42">
+        <v>9987.1540000000005</v>
+      </c>
+      <c r="Q42">
+        <v>387.74799999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4000</v>
+      </c>
+      <c r="T42">
+        <v>5592.116</v>
+      </c>
+      <c r="U42">
+        <v>431.40800000000002</v>
+      </c>
+      <c r="V42">
+        <v>165.35599999999999</v>
+      </c>
+      <c r="W42">
+        <v>-99.397000000000006</v>
+      </c>
+      <c r="X42">
+        <v>-50.679000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>189.38300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>127.331</v>
+      </c>
+      <c r="D43">
+        <v>462.50799999999998</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>283.786</v>
+      </c>
+      <c r="G43">
+        <v>630.66499999999996</v>
+      </c>
+      <c r="H43">
+        <v>16075.329</v>
+      </c>
+      <c r="I43">
+        <v>80.385000000000005</v>
+      </c>
+      <c r="J43">
+        <v>9422.8369999999995</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-298.05200000000002</v>
+      </c>
+      <c r="N43">
+        <v>545.73099999999999</v>
+      </c>
+      <c r="O43">
+        <v>10256.546</v>
+      </c>
+      <c r="P43">
+        <v>9710.1910000000007</v>
+      </c>
+      <c r="Q43">
+        <v>-125.336</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>4000</v>
+      </c>
+      <c r="T43">
+        <v>5818.7830000000004</v>
+      </c>
+      <c r="U43">
+        <v>306.072</v>
+      </c>
+      <c r="V43">
+        <v>187.52799999999999</v>
+      </c>
+      <c r="W43">
+        <v>-136.12100000000001</v>
+      </c>
+      <c r="X43">
+        <v>-274.858</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>127.331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>555.92399999999998</v>
+      </c>
+      <c r="D44">
+        <v>467.43799999999999</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>297.21600000000001</v>
+      </c>
+      <c r="G44">
+        <v>980.41800000000001</v>
+      </c>
+      <c r="H44">
+        <v>16398.121999999999</v>
+      </c>
+      <c r="I44">
+        <v>69.117999999999995</v>
+      </c>
+      <c r="J44">
+        <v>9194.9009999999998</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>587.50800000000004</v>
+      </c>
+      <c r="O44">
+        <v>10084.172</v>
+      </c>
+      <c r="P44">
+        <v>9514.1409999999996</v>
+      </c>
+      <c r="Q44">
+        <v>298.69200000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>6313.95</v>
+      </c>
+      <c r="U44">
+        <v>604.76400000000001</v>
+      </c>
+      <c r="V44">
+        <v>204.94900000000001</v>
+      </c>
+      <c r="W44">
+        <v>-102.807</v>
+      </c>
+      <c r="X44">
+        <v>-348.32900000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="AA44">
+        <v>555.92399999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>107.848</v>
+      </c>
+      <c r="D45">
+        <v>493.87200000000001</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>314.62599999999998</v>
+      </c>
+      <c r="G45">
+        <v>426.02800000000002</v>
+      </c>
+      <c r="H45">
+        <v>15756.816999999999</v>
+      </c>
+      <c r="I45">
+        <v>97.844999999999999</v>
+      </c>
+      <c r="J45">
+        <v>8523.4050000000007</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>694.34799999999996</v>
+      </c>
+      <c r="O45">
+        <v>9523.2479999999996</v>
+      </c>
+      <c r="P45">
+        <v>8943.34</v>
+      </c>
+      <c r="Q45">
+        <v>-558.77800000000002</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>3700</v>
+      </c>
+      <c r="T45">
+        <v>6233.5690000000004</v>
+      </c>
+      <c r="U45">
+        <v>45.985999999999997</v>
+      </c>
+      <c r="V45">
+        <v>221.57400000000001</v>
+      </c>
+      <c r="W45">
+        <v>-103.399</v>
+      </c>
+      <c r="X45">
+        <v>-744.50800000000004</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>107.848</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>102.482</v>
+      </c>
+      <c r="D46">
+        <v>459.673</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>296.13099999999997</v>
+      </c>
+      <c r="G46">
+        <v>573.63</v>
+      </c>
+      <c r="H46">
+        <v>16659.303</v>
+      </c>
+      <c r="I46">
+        <v>35.206000000000003</v>
+      </c>
+      <c r="J46">
+        <v>9721.0609999999997</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>334.68400000000003</v>
+      </c>
+      <c r="O46">
+        <v>10380.041999999999</v>
+      </c>
+      <c r="P46">
+        <v>9753.3389999999999</v>
+      </c>
+      <c r="Q46">
+        <v>337.935</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>3800</v>
+      </c>
+      <c r="T46">
+        <v>6279.2610000000004</v>
+      </c>
+      <c r="U46">
+        <v>383.92099999999999</v>
+      </c>
+      <c r="V46">
+        <v>184.28299999999999</v>
+      </c>
+      <c r="W46">
+        <v>-102.52500000000001</v>
+      </c>
+      <c r="X46">
+        <v>716.702</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-1.1559999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>102.482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>145.29900000000001</v>
+      </c>
+      <c r="D47">
+        <v>430.26299999999998</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>266.375</v>
+      </c>
+      <c r="G47">
+        <v>409.48200000000003</v>
+      </c>
+      <c r="H47">
+        <v>16481.246999999999</v>
+      </c>
+      <c r="I47">
+        <v>77.055000000000007</v>
+      </c>
+      <c r="J47">
+        <v>8690.5419999999995</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-305.62799999999999</v>
+      </c>
+      <c r="N47">
+        <v>1016.672</v>
+      </c>
+      <c r="O47">
+        <v>10005.069</v>
+      </c>
+      <c r="P47">
+        <v>9441.6270000000004</v>
+      </c>
+      <c r="Q47">
+        <v>-164.29300000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>3700</v>
+      </c>
+      <c r="T47">
+        <v>6476.1779999999999</v>
+      </c>
+      <c r="U47">
+        <v>219.62799999999999</v>
+      </c>
+      <c r="V47">
+        <v>234.245</v>
+      </c>
+      <c r="W47">
+        <v>-171.816</v>
+      </c>
+      <c r="X47">
+        <v>-316.673</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-2.3959999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>145.29900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>103.264</v>
+      </c>
+      <c r="D48">
+        <v>420.79700000000003</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>269.02600000000001</v>
+      </c>
+      <c r="G48">
+        <v>242.786</v>
+      </c>
+      <c r="H48">
+        <v>16714.412</v>
+      </c>
+      <c r="I48">
+        <v>72.647000000000006</v>
+      </c>
+      <c r="J48">
+        <v>8584.1990000000005</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1115.79</v>
+      </c>
+      <c r="O48">
+        <v>10157.984</v>
+      </c>
+      <c r="P48">
+        <v>9435.1839999999993</v>
+      </c>
+      <c r="Q48">
+        <v>-175.04300000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>6556.4279999999999</v>
+      </c>
+      <c r="U48">
+        <v>44.585000000000001</v>
+      </c>
+      <c r="V48">
+        <v>350.50400000000002</v>
+      </c>
+      <c r="W48">
+        <v>-104.872</v>
+      </c>
+      <c r="X48">
+        <v>-214.607</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-3.024</v>
+      </c>
+      <c r="AA48">
+        <v>103.264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>226.13900000000001</v>
+      </c>
+      <c r="D49">
+        <v>451.69900000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>292.35199999999998</v>
+      </c>
+      <c r="G49">
+        <v>166.06299999999999</v>
+      </c>
+      <c r="H49">
+        <v>16668.544999999998</v>
+      </c>
+      <c r="I49">
+        <v>105.602</v>
+      </c>
+      <c r="J49">
+        <v>9309.1530000000002</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>292.51900000000001</v>
+      </c>
+      <c r="O49">
+        <v>10040.476000000001</v>
+      </c>
+      <c r="P49">
+        <v>9309.1530000000002</v>
+      </c>
+      <c r="Q49">
+        <v>1.038</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>3700</v>
+      </c>
+      <c r="T49">
+        <v>6628.0690000000004</v>
+      </c>
+      <c r="U49">
+        <v>45.622999999999998</v>
+      </c>
+      <c r="V49">
+        <v>277.11700000000002</v>
+      </c>
+      <c r="W49">
+        <v>-105.97499999999999</v>
+      </c>
+      <c r="X49">
+        <v>-288.25900000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AA49">
+        <v>226.13900000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>367.017</v>
+      </c>
+      <c r="D50">
+        <v>444.74299999999999</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>294.27100000000002</v>
+      </c>
+      <c r="G50">
+        <v>864.55499999999995</v>
+      </c>
+      <c r="H50">
+        <v>17201</v>
+      </c>
+      <c r="I50">
+        <v>38.372</v>
+      </c>
+      <c r="J50">
+        <v>8529.2440000000006</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>418.82100000000003</v>
+      </c>
+      <c r="O50">
+        <v>9275.5210000000006</v>
+      </c>
+      <c r="P50">
+        <v>8573.2939999999999</v>
+      </c>
+      <c r="Q50">
+        <v>566.96699999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3600</v>
+      </c>
+      <c r="T50">
+        <v>7925.4790000000003</v>
+      </c>
+      <c r="U50">
+        <v>612.59</v>
+      </c>
+      <c r="V50">
+        <v>184.28899999999999</v>
+      </c>
+      <c r="W50">
+        <v>-104.20399999999999</v>
+      </c>
+      <c r="X50">
+        <v>263.221</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>367.017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1017.686</v>
+      </c>
+      <c r="D51">
+        <v>504.72199999999998</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>316.96300000000002</v>
+      </c>
+      <c r="G51">
+        <v>203.655</v>
+      </c>
+      <c r="H51">
+        <v>23795.157999999999</v>
+      </c>
+      <c r="I51">
+        <v>104.836</v>
+      </c>
+      <c r="J51">
+        <v>11632.421</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-6042.2640000000001</v>
+      </c>
+      <c r="N51">
+        <v>908.23400000000004</v>
+      </c>
+      <c r="O51">
+        <v>12973.313</v>
+      </c>
+      <c r="P51">
+        <v>12196.55</v>
+      </c>
+      <c r="Q51">
+        <v>-556.50300000000004</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>4000</v>
+      </c>
+      <c r="T51">
+        <v>10821.844999999999</v>
+      </c>
+      <c r="U51">
+        <v>56.087000000000003</v>
+      </c>
+      <c r="V51">
+        <v>193.51400000000001</v>
+      </c>
+      <c r="W51">
+        <v>-249.33</v>
+      </c>
+      <c r="X51">
+        <v>291.55599999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="AA51">
+        <v>1017.686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>324.75900000000001</v>
+      </c>
+      <c r="D52">
+        <v>617.21699999999998</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>403.36599999999999</v>
+      </c>
+      <c r="G52">
+        <v>362.10700000000003</v>
+      </c>
+      <c r="H52">
+        <v>23482.383000000002</v>
+      </c>
+      <c r="I52">
+        <v>84.602999999999994</v>
+      </c>
+      <c r="J52">
+        <v>11717.692999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>327.40499999999997</v>
+      </c>
+      <c r="O52">
+        <v>12435.576999999999</v>
+      </c>
+      <c r="P52">
+        <v>11723.566000000001</v>
+      </c>
+      <c r="Q52">
+        <v>96.477000000000004</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>3700</v>
+      </c>
+      <c r="T52">
+        <v>11046.806</v>
+      </c>
+      <c r="U52">
+        <v>152.56399999999999</v>
+      </c>
+      <c r="V52">
+        <v>224.30500000000001</v>
+      </c>
+      <c r="W52">
+        <v>-145.053</v>
+      </c>
+      <c r="X52">
+        <v>-606.85299999999995</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-54.215000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>324.75900000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>377.19200000000001</v>
+      </c>
+      <c r="D53">
+        <v>626.62900000000002</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>411.54</v>
+      </c>
+      <c r="G53">
+        <v>1083.7670000000001</v>
+      </c>
+      <c r="H53">
+        <v>23811.431</v>
+      </c>
+      <c r="I53">
+        <v>166.93899999999999</v>
+      </c>
+      <c r="J53">
+        <v>11704.062</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>408.71899999999999</v>
+      </c>
+      <c r="O53">
+        <v>12512.584000000001</v>
+      </c>
+      <c r="P53">
+        <v>11710.653</v>
+      </c>
+      <c r="Q53">
+        <v>820.197</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>3600</v>
+      </c>
+      <c r="T53">
+        <v>11298.847</v>
+      </c>
+      <c r="U53">
+        <v>972.76099999999997</v>
+      </c>
+      <c r="V53">
+        <v>349.274</v>
+      </c>
+      <c r="W53">
+        <v>-146.19</v>
+      </c>
+      <c r="X53">
+        <v>-149.46299999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>21.434000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>377.19200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>110.976</v>
+      </c>
+      <c r="D54">
+        <v>639.13400000000001</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>421.60500000000002</v>
+      </c>
+      <c r="G54">
+        <v>175.81100000000001</v>
+      </c>
+      <c r="H54">
+        <v>22834.544999999998</v>
+      </c>
+      <c r="I54">
+        <v>118.791</v>
+      </c>
+      <c r="J54">
+        <v>10766.254000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>440.61099999999999</v>
+      </c>
+      <c r="O54">
+        <v>11626.205</v>
+      </c>
+      <c r="P54">
+        <v>10766.254000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-919.22699999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3600</v>
+      </c>
+      <c r="T54">
+        <v>11208.34</v>
+      </c>
+      <c r="U54">
+        <v>53.533999999999999</v>
+      </c>
+      <c r="V54">
+        <v>101.82299999999999</v>
+      </c>
+      <c r="W54">
+        <v>-145.18199999999999</v>
+      </c>
+      <c r="X54">
+        <v>-956.23500000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-3.0579999999999998</v>
+      </c>
+      <c r="AA54">
+        <v>110.976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>79.135000000000005</v>
+      </c>
+      <c r="D55">
+        <v>633.44200000000001</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>402.00200000000001</v>
+      </c>
+      <c r="G55">
+        <v>139.71799999999999</v>
+      </c>
+      <c r="H55">
+        <v>22889.631000000001</v>
+      </c>
+      <c r="I55">
+        <v>161.83799999999999</v>
+      </c>
+      <c r="J55">
+        <v>10943.281999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1571.0340000000001</v>
+      </c>
+      <c r="N55">
+        <v>432.40699999999998</v>
+      </c>
+      <c r="O55">
+        <v>11764.797</v>
+      </c>
+      <c r="P55">
+        <v>10947.951999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-16.324999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>3600</v>
+      </c>
+      <c r="T55">
+        <v>11124.834000000001</v>
+      </c>
+      <c r="U55">
+        <v>37.209000000000003</v>
+      </c>
+      <c r="V55">
+        <v>336.88200000000001</v>
+      </c>
+      <c r="W55">
+        <v>-235.31800000000001</v>
+      </c>
+      <c r="X55">
+        <v>-51.45</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1.429</v>
+      </c>
+      <c r="AA55">
+        <v>79.135000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>112.69</v>
+      </c>
+      <c r="D56">
+        <v>652.56799999999998</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>432.19799999999998</v>
+      </c>
+      <c r="G56">
+        <v>161.99199999999999</v>
+      </c>
+      <c r="H56">
+        <v>22991.401999999998</v>
+      </c>
+      <c r="I56">
+        <v>168.22499999999999</v>
+      </c>
+      <c r="J56">
+        <v>10576.212</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>942.697</v>
+      </c>
+      <c r="O56">
+        <v>11922.733</v>
+      </c>
+      <c r="P56">
+        <v>11084.388999999999</v>
+      </c>
+      <c r="Q56">
+        <v>38.923000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>3600</v>
+      </c>
+      <c r="T56">
+        <v>11068.669</v>
+      </c>
+      <c r="U56">
+        <v>76.132000000000005</v>
+      </c>
+      <c r="V56">
+        <v>282.59699999999998</v>
+      </c>
+      <c r="W56">
+        <v>-181.59700000000001</v>
+      </c>
+      <c r="X56">
+        <v>-55.811</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>53.707999999999998</v>
+      </c>
+      <c r="AA56">
+        <v>112.69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>221.744</v>
+      </c>
+      <c r="D57">
+        <v>664.07799999999997</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>443.71100000000001</v>
+      </c>
+      <c r="G57">
+        <v>117.101</v>
+      </c>
+      <c r="H57">
+        <v>23008.094000000001</v>
+      </c>
+      <c r="I57">
+        <v>203.07</v>
+      </c>
+      <c r="J57">
+        <v>10660.146000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>780.68</v>
+      </c>
+      <c r="O57">
+        <v>11860.522999999999</v>
+      </c>
+      <c r="P57">
+        <v>10963.018</v>
+      </c>
+      <c r="Q57">
+        <v>-44.654000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>3500</v>
+      </c>
+      <c r="T57">
+        <v>11147.571</v>
+      </c>
+      <c r="U57">
+        <v>31.478000000000002</v>
+      </c>
+      <c r="V57">
+        <v>394.79199999999997</v>
+      </c>
+      <c r="W57">
+        <v>-181.75800000000001</v>
+      </c>
+      <c r="X57">
+        <v>-278.42399999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>221.744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>217.739</v>
+      </c>
+      <c r="D58">
+        <v>664.66</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>453.27300000000002</v>
+      </c>
+      <c r="G58">
+        <v>114.312</v>
+      </c>
+      <c r="H58">
+        <v>22950.614000000001</v>
+      </c>
+      <c r="I58">
+        <v>153.59</v>
+      </c>
+      <c r="J58">
+        <v>10844.861000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>445.8</v>
+      </c>
+      <c r="O58">
+        <v>11742.105</v>
+      </c>
+      <c r="P58">
+        <v>10858.965</v>
+      </c>
+      <c r="Q58">
+        <v>8.6020000000000003</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3500</v>
+      </c>
+      <c r="T58">
+        <v>11208.509</v>
+      </c>
+      <c r="U58">
+        <v>40.08</v>
+      </c>
+      <c r="V58">
+        <v>309.80200000000002</v>
+      </c>
+      <c r="W58">
+        <v>-182.131</v>
+      </c>
+      <c r="X58">
+        <v>-307.17599999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>25.486000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>217.739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>182.52199999999999</v>
+      </c>
+      <c r="D59">
+        <v>666.37099999999998</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>432.61399999999998</v>
+      </c>
+      <c r="G59">
+        <v>260.11</v>
+      </c>
+      <c r="H59">
+        <v>23029.047999999999</v>
+      </c>
+      <c r="I59">
+        <v>202.11</v>
+      </c>
+      <c r="J59">
+        <v>10173.687</v>
+      </c>
+      <c r="K59">
+        <v>340.82600000000002</v>
+      </c>
+      <c r="L59">
+        <v>-814.6</v>
+      </c>
+      <c r="M59">
+        <v>-2324.0720000000001</v>
+      </c>
+      <c r="N59">
+        <v>1207.569</v>
+      </c>
+      <c r="O59">
+        <v>11813.593000000001</v>
+      </c>
+      <c r="P59">
+        <v>10885.522000000001</v>
+      </c>
+      <c r="Q59">
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>3500</v>
+      </c>
+      <c r="T59">
+        <v>11215.455</v>
+      </c>
+      <c r="U59">
+        <v>49.417999999999999</v>
+      </c>
+      <c r="V59">
+        <v>347.89499999999998</v>
+      </c>
+      <c r="W59">
+        <v>-182.29900000000001</v>
+      </c>
+      <c r="X59">
+        <v>-159.33500000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>16.559000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>182.52199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>286.42</v>
+      </c>
+      <c r="D60">
+        <v>679.11199999999997</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>456.19600000000003</v>
+      </c>
+      <c r="G60">
+        <v>199.572</v>
+      </c>
+      <c r="H60">
+        <v>23081.83</v>
+      </c>
+      <c r="I60">
+        <v>193.096</v>
+      </c>
+      <c r="J60">
+        <v>10784.975</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>532.20000000000005</v>
+      </c>
+      <c r="O60">
+        <v>11748.919</v>
+      </c>
+      <c r="P60">
+        <v>10827.906999999999</v>
+      </c>
+      <c r="Q60">
+        <v>42.691000000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>3500</v>
+      </c>
+      <c r="T60">
+        <v>11332.911</v>
+      </c>
+      <c r="U60">
+        <v>92.108999999999995</v>
+      </c>
+      <c r="V60">
+        <v>327.15199999999999</v>
+      </c>
+      <c r="W60">
+        <v>-201.86600000000001</v>
+      </c>
+      <c r="X60">
+        <v>-258.13400000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>286.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>196.69200000000001</v>
+      </c>
+      <c r="D61">
+        <v>696.28899999999999</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>468.85</v>
+      </c>
+      <c r="G61">
+        <v>182.79900000000001</v>
+      </c>
+      <c r="H61">
+        <v>23008.804</v>
+      </c>
+      <c r="I61">
+        <v>253.02699999999999</v>
+      </c>
+      <c r="J61">
+        <v>10771.198</v>
+      </c>
+      <c r="K61">
+        <v>29.995999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>581.41200000000003</v>
+      </c>
+      <c r="O61">
+        <v>11781.555</v>
+      </c>
+      <c r="P61">
+        <v>10804.414000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-54.743000000000002</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>3500</v>
+      </c>
+      <c r="T61">
+        <v>11227.249</v>
+      </c>
+      <c r="U61">
+        <v>37.366</v>
+      </c>
+      <c r="V61">
+        <v>388.29899999999998</v>
+      </c>
+      <c r="W61">
+        <v>-201.96</v>
+      </c>
+      <c r="X61">
+        <v>-237.87899999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>196.69200000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>204.48599999999999</v>
+      </c>
+      <c r="D62">
+        <v>703.19299999999998</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>482.137</v>
+      </c>
+      <c r="G62">
+        <v>2282.9589999999998</v>
+      </c>
+      <c r="H62">
+        <v>23110.196</v>
+      </c>
+      <c r="I62">
+        <v>187.124</v>
+      </c>
+      <c r="J62">
+        <v>10534.09</v>
+      </c>
+      <c r="K62">
+        <v>387.27600000000001</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>869.67200000000003</v>
+      </c>
+      <c r="O62">
+        <v>11847.058000000001</v>
+      </c>
+      <c r="P62">
+        <v>10922.039000000001</v>
+      </c>
+      <c r="Q62">
+        <v>4.91</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3500</v>
+      </c>
+      <c r="T62">
+        <v>11263.138000000001</v>
+      </c>
+      <c r="U62">
+        <v>42.276000000000003</v>
+      </c>
+      <c r="V62">
+        <v>293.15300000000002</v>
+      </c>
+      <c r="W62">
+        <v>-201.98</v>
+      </c>
+      <c r="X62">
+        <v>-20.484000000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>204.48599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>3587.7579999999998</v>
+      </c>
+      <c r="D63">
+        <v>619.08299999999997</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>406.22699999999998</v>
+      </c>
+      <c r="G63">
+        <v>620.32299999999998</v>
+      </c>
+      <c r="H63">
+        <v>21301.292000000001</v>
+      </c>
+      <c r="I63">
+        <v>215.81700000000001</v>
+      </c>
+      <c r="J63">
+        <v>8519.9</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-1958.472</v>
+      </c>
+      <c r="M63">
+        <v>-1984.809</v>
+      </c>
+      <c r="N63">
+        <v>544.03099999999995</v>
+      </c>
+      <c r="O63">
+        <v>9471.4969999999994</v>
+      </c>
+      <c r="P63">
+        <v>8587.3970000000008</v>
+      </c>
+      <c r="Q63">
+        <v>325.77300000000002</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>2900</v>
+      </c>
+      <c r="T63">
+        <v>11829.795</v>
+      </c>
+      <c r="U63">
+        <v>368.04899999999998</v>
+      </c>
+      <c r="V63">
+        <v>201.38200000000001</v>
+      </c>
+      <c r="W63">
+        <v>-123.425</v>
+      </c>
+      <c r="X63">
+        <v>-5626.8450000000003</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>3587.7579999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>218.839</v>
+      </c>
+      <c r="D64">
+        <v>595.154</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>400.44099999999997</v>
+      </c>
+      <c r="G64">
+        <v>587.47500000000002</v>
+      </c>
+      <c r="H64">
+        <v>21229.921999999999</v>
+      </c>
+      <c r="I64">
+        <v>186.62899999999999</v>
+      </c>
+      <c r="J64">
+        <v>8507.152</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>445.18900000000002</v>
+      </c>
+      <c r="O64">
+        <v>9344.9940000000006</v>
+      </c>
+      <c r="P64">
+        <v>8516.134</v>
+      </c>
+      <c r="Q64">
+        <v>129.79400000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>2800</v>
+      </c>
+      <c r="T64">
+        <v>11884.928</v>
+      </c>
+      <c r="U64">
+        <v>497.84300000000002</v>
+      </c>
+      <c r="V64">
+        <v>273.69400000000002</v>
+      </c>
+      <c r="W64">
+        <v>-184.82400000000001</v>
+      </c>
+      <c r="X64">
+        <v>-264.67099999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>66.356999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>218.839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>208.316</v>
+      </c>
+      <c r="D65">
+        <v>606.07399999999996</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>400.99799999999999</v>
+      </c>
+      <c r="G65">
+        <v>655.37300000000005</v>
+      </c>
+      <c r="H65">
+        <v>21297.743999999999</v>
+      </c>
+      <c r="I65">
+        <v>199.79499999999999</v>
+      </c>
+      <c r="J65">
+        <v>8496.8490000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1607.45</v>
+      </c>
+      <c r="O65">
+        <v>10517.050999999999</v>
+      </c>
+      <c r="P65">
+        <v>8503.7000000000007</v>
+      </c>
+      <c r="Q65">
+        <v>19.742999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>2800</v>
+      </c>
+      <c r="T65">
+        <v>10780.692999999999</v>
+      </c>
+      <c r="U65">
+        <v>517.58600000000001</v>
+      </c>
+      <c r="V65">
+        <v>344.245</v>
+      </c>
+      <c r="W65">
+        <v>-184.90700000000001</v>
+      </c>
+      <c r="X65">
+        <v>-204.66</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>15.564</v>
+      </c>
+      <c r="AA65">
+        <v>208.316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>277.25</v>
+      </c>
+      <c r="D66">
+        <v>605.48900000000003</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>411.90899999999999</v>
+      </c>
+      <c r="G66">
+        <v>220.94499999999999</v>
+      </c>
+      <c r="H66">
+        <v>20704.148000000001</v>
+      </c>
+      <c r="I66">
+        <v>147.482</v>
+      </c>
+      <c r="J66">
+        <v>8967.26</v>
+      </c>
+      <c r="K66">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>420.72199999999998</v>
+      </c>
+      <c r="O66">
+        <v>9801.0720000000001</v>
+      </c>
+      <c r="P66">
+        <v>8987.2579999999998</v>
+      </c>
+      <c r="Q66">
+        <v>-411.33699999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2700</v>
+      </c>
+      <c r="T66">
+        <v>10903.075999999999</v>
+      </c>
+      <c r="U66">
+        <v>77.206999999999994</v>
+      </c>
+      <c r="V66">
+        <v>394.80200000000002</v>
+      </c>
+      <c r="W66">
+        <v>-180.887</v>
+      </c>
+      <c r="X66">
+        <v>-957.91600000000005</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-1.44</v>
+      </c>
+      <c r="AA66">
+        <v>277.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>143.74199999999999</v>
+      </c>
+      <c r="D67">
+        <v>604.1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>397.512</v>
+      </c>
+      <c r="G67">
+        <v>118.943</v>
+      </c>
+      <c r="H67">
+        <v>20608.338</v>
+      </c>
+      <c r="I67">
+        <v>165.64</v>
+      </c>
+      <c r="J67">
+        <v>8615.2389999999996</v>
+      </c>
+      <c r="K67">
+        <v>314.68599999999998</v>
+      </c>
+      <c r="L67">
+        <v>-1015.5</v>
+      </c>
+      <c r="M67">
+        <v>-353.738</v>
+      </c>
+      <c r="N67">
+        <v>746.35</v>
+      </c>
+      <c r="O67">
+        <v>9733.1790000000001</v>
+      </c>
+      <c r="P67">
+        <v>8929.9249999999993</v>
+      </c>
+      <c r="Q67">
+        <v>-32.865000000000002</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>2700</v>
+      </c>
+      <c r="T67">
+        <v>10875.159</v>
+      </c>
+      <c r="U67">
+        <v>42.139000000000003</v>
+      </c>
+      <c r="V67">
+        <v>303.904</v>
+      </c>
+      <c r="W67">
+        <v>-185.84700000000001</v>
+      </c>
+      <c r="X67">
+        <v>-264.12700000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1.591</v>
+      </c>
+      <c r="AA67">
+        <v>143.74199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>196.041</v>
+      </c>
+      <c r="D68">
+        <v>612.48</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>404.072</v>
+      </c>
+      <c r="G68">
+        <v>296.83100000000002</v>
+      </c>
+      <c r="H68">
+        <v>20636.575000000001</v>
+      </c>
+      <c r="I68">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="J68">
+        <v>8199.7279999999992</v>
+      </c>
+      <c r="K68">
+        <v>764.36099999999999</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1142.8209999999999</v>
+      </c>
+      <c r="O68">
+        <v>9730.1990000000005</v>
+      </c>
+      <c r="P68">
+        <v>8964.0889999999999</v>
+      </c>
+      <c r="Q68">
+        <v>126.89</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>2700</v>
+      </c>
+      <c r="T68">
+        <v>10906.376</v>
+      </c>
+      <c r="U68">
+        <v>37.719000000000001</v>
+      </c>
+      <c r="V68">
+        <v>255.209</v>
+      </c>
+      <c r="W68">
+        <v>-185.715</v>
+      </c>
+      <c r="X68">
+        <v>-156.35400000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-0.78400000000000003</v>
+      </c>
+      <c r="AA68">
+        <v>196.041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>138.22900000000001</v>
+      </c>
+      <c r="D69">
+        <v>624.12199999999996</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>414.45299999999997</v>
+      </c>
+      <c r="G69">
+        <v>87.569000000000003</v>
+      </c>
+      <c r="H69">
+        <v>20697.832999999999</v>
+      </c>
+      <c r="I69">
+        <v>167.98400000000001</v>
+      </c>
+      <c r="J69">
+        <v>8762.4279999999999</v>
+      </c>
+      <c r="K69">
+        <v>229.84399999999999</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>663.20799999999997</v>
+      </c>
+      <c r="O69">
+        <v>9823.5159999999996</v>
+      </c>
+      <c r="P69">
+        <v>8992.2720000000008</v>
+      </c>
+      <c r="Q69">
+        <v>-218.93700000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>2700</v>
+      </c>
+      <c r="T69">
+        <v>10874.316999999999</v>
+      </c>
+      <c r="U69">
+        <v>46.564999999999998</v>
+      </c>
+      <c r="V69">
+        <v>411.02300000000002</v>
+      </c>
+      <c r="W69">
+        <v>-185.023</v>
+      </c>
+      <c r="X69">
+        <v>-158.792</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-2.62</v>
+      </c>
+      <c r="AA69">
+        <v>138.22900000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>125.44199999999999</v>
+      </c>
+      <c r="D70">
+        <v>630.70399999999995</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>429.1</v>
+      </c>
+      <c r="G70">
+        <v>105.905</v>
+      </c>
+      <c r="H70">
+        <v>20570.598999999998</v>
+      </c>
+      <c r="I70">
+        <v>114.76600000000001</v>
+      </c>
+      <c r="J70">
+        <v>8657.5339999999997</v>
+      </c>
+      <c r="K70">
+        <v>299.75700000000001</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>666.98299999999995</v>
+      </c>
+      <c r="O70">
+        <v>9729.7810000000009</v>
+      </c>
+      <c r="P70">
+        <v>8958.8880000000008</v>
+      </c>
+      <c r="Q70">
+        <v>6.5860000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2700</v>
+      </c>
+      <c r="T70">
+        <v>10840.817999999999</v>
+      </c>
+      <c r="U70">
+        <v>50.646999999999998</v>
+      </c>
+      <c r="V70">
+        <v>295.65199999999999</v>
+      </c>
+      <c r="W70">
+        <v>-185.881</v>
+      </c>
+      <c r="X70">
+        <v>-210.54499999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-0.70499999999999996</v>
+      </c>
+      <c r="AA70">
+        <v>125.44199999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>211.809</v>
+      </c>
+      <c r="D71">
+        <v>633.01599999999996</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>409.45600000000002</v>
+      </c>
+      <c r="G71">
+        <v>107.348</v>
+      </c>
+      <c r="H71">
+        <v>20383.87</v>
+      </c>
+      <c r="I71">
+        <v>167.48099999999999</v>
+      </c>
+      <c r="J71">
+        <v>8425.1589999999997</v>
+      </c>
+      <c r="K71">
+        <v>234.31800000000001</v>
+      </c>
+      <c r="L71">
+        <v>-1588</v>
+      </c>
+      <c r="M71">
+        <v>-727.35900000000004</v>
+      </c>
+      <c r="N71">
+        <v>685.27700000000004</v>
+      </c>
+      <c r="O71">
+        <v>9504.2099999999991</v>
+      </c>
+      <c r="P71">
+        <v>8666.4079999999994</v>
+      </c>
+      <c r="Q71">
+        <v>-6.0510000000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>2700</v>
+      </c>
+      <c r="T71">
+        <v>10879.66</v>
+      </c>
+      <c r="U71">
+        <v>44.453000000000003</v>
+      </c>
+      <c r="V71">
+        <v>361.01799999999997</v>
+      </c>
+      <c r="W71">
+        <v>-186.25700000000001</v>
+      </c>
+      <c r="X71">
+        <v>-514.36699999999996</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2.7989999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>211.809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>113.602</v>
+      </c>
+      <c r="D72">
+        <v>639.80799999999999</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>423.09800000000001</v>
+      </c>
+      <c r="G72">
+        <v>105.608</v>
+      </c>
+      <c r="H72">
+        <v>20406.581999999999</v>
+      </c>
+      <c r="I72">
+        <v>146.41499999999999</v>
+      </c>
+      <c r="J72">
+        <v>8426.9619999999995</v>
+      </c>
+      <c r="K72">
+        <v>345.80700000000002</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>767.37099999999998</v>
+      </c>
+      <c r="O72">
+        <v>9600.3130000000001</v>
+      </c>
+      <c r="P72">
+        <v>8777.7479999999996</v>
+      </c>
+      <c r="Q72">
+        <v>-5.8339999999999996</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>2700</v>
+      </c>
+      <c r="T72">
+        <v>10806.269</v>
+      </c>
+      <c r="U72">
+        <v>34.506999999999998</v>
+      </c>
+      <c r="V72">
+        <v>324.43599999999998</v>
+      </c>
+      <c r="W72">
+        <v>-199.60300000000001</v>
+      </c>
+      <c r="X72">
+        <v>-98.796000000000006</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-0.3</v>
+      </c>
+      <c r="AA72">
+        <v>113.602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>214.93700000000001</v>
+      </c>
+      <c r="D73">
+        <v>652.86699999999996</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>432.69099999999997</v>
+      </c>
+      <c r="G73">
+        <v>116.276</v>
+      </c>
+      <c r="H73">
+        <v>20542.150000000001</v>
+      </c>
+      <c r="I73">
+        <v>182.446</v>
+      </c>
+      <c r="J73">
+        <v>8324.4259999999995</v>
+      </c>
+      <c r="K73">
+        <v>499.36700000000002</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>960.93200000000002</v>
+      </c>
+      <c r="O73">
+        <v>9693.82</v>
+      </c>
+      <c r="P73">
+        <v>8826.8809999999994</v>
+      </c>
+      <c r="Q73">
+        <v>-0.127</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>2700</v>
+      </c>
+      <c r="T73">
+        <v>10848.33</v>
+      </c>
+      <c r="U73">
+        <v>32.994999999999997</v>
+      </c>
+      <c r="V73">
+        <v>358.73700000000002</v>
+      </c>
+      <c r="W73">
+        <v>-199.642</v>
+      </c>
+      <c r="X73">
+        <v>-174.22</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-1.7609999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>214.93700000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>117.187</v>
+      </c>
+      <c r="D74">
+        <v>652.74300000000005</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>433.55500000000001</v>
+      </c>
+      <c r="G74">
+        <v>118.313</v>
+      </c>
+      <c r="H74">
+        <v>20394.208999999999</v>
+      </c>
+      <c r="I74">
+        <v>102.471</v>
+      </c>
+      <c r="J74">
+        <v>7871.3540000000003</v>
+      </c>
+      <c r="K74">
+        <v>499.18299999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1330.4069999999999</v>
+      </c>
+      <c r="O74">
+        <v>9615.4539999999997</v>
+      </c>
+      <c r="P74">
+        <v>8830.0669999999991</v>
+      </c>
+      <c r="Q74">
+        <v>27.562999999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2700</v>
+      </c>
+      <c r="T74">
+        <v>10778.754999999999</v>
+      </c>
+      <c r="U74">
+        <v>47.442</v>
+      </c>
+      <c r="V74">
+        <v>312.10399999999998</v>
+      </c>
+      <c r="W74">
+        <v>-200.483</v>
+      </c>
+      <c r="X74">
+        <v>-176.52699999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-1.7110000000000001</v>
+      </c>
+      <c r="AA74">
+        <v>117.187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>104.539</v>
+      </c>
+      <c r="D75">
+        <v>662.49400000000003</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>429.58600000000001</v>
+      </c>
+      <c r="G75">
+        <v>94.171000000000006</v>
+      </c>
+      <c r="H75">
+        <v>20768.811000000002</v>
+      </c>
+      <c r="I75">
+        <v>152.83099999999999</v>
+      </c>
+      <c r="J75">
+        <v>8607.8259999999991</v>
+      </c>
+      <c r="K75">
+        <v>344.84399999999999</v>
+      </c>
+      <c r="L75">
+        <v>-4140</v>
+      </c>
+      <c r="M75">
+        <v>-1996.6189999999999</v>
+      </c>
+      <c r="N75">
+        <v>814.13199999999995</v>
+      </c>
+      <c r="O75">
+        <v>10069.744000000001</v>
+      </c>
+      <c r="P75">
+        <v>9258.8649999999998</v>
+      </c>
+      <c r="Q75">
+        <v>-22.806999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>2700</v>
+      </c>
+      <c r="T75">
+        <v>10699.066999999999</v>
+      </c>
+      <c r="U75">
+        <v>29.390999999999998</v>
+      </c>
+      <c r="V75">
+        <v>373.54500000000002</v>
+      </c>
+      <c r="W75">
+        <v>-199.749</v>
+      </c>
+      <c r="X75">
+        <v>-49.317</v>
+      </c>
+      <c r="Y75">
+        <v>282.23700000000002</v>
+      </c>
+      <c r="Z75">
+        <v>-6.532</v>
+      </c>
+      <c r="AA75">
+        <v>104.539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>308.96800000000002</v>
+      </c>
+      <c r="D76">
+        <v>669.37400000000002</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>445.09800000000001</v>
+      </c>
+      <c r="G76">
+        <v>309.46800000000002</v>
+      </c>
+      <c r="H76">
+        <v>20990.710999999999</v>
+      </c>
+      <c r="I76">
+        <v>108.574</v>
+      </c>
+      <c r="J76">
+        <v>9130.4210000000003</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>391.45299999999997</v>
+      </c>
+      <c r="O76">
+        <v>10175.125</v>
+      </c>
+      <c r="P76">
+        <v>9412.0650000000005</v>
+      </c>
+      <c r="Q76">
+        <v>215.96199999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>2700</v>
+      </c>
+      <c r="T76">
+        <v>10815.585999999999</v>
+      </c>
+      <c r="U76">
+        <v>251.273</v>
+      </c>
+      <c r="V76">
+        <v>317.22800000000001</v>
+      </c>
+      <c r="W76">
+        <v>-210.96700000000001</v>
+      </c>
+      <c r="X76">
+        <v>-79.146000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>281.62</v>
+      </c>
+      <c r="Z76">
+        <v>75.953000000000003</v>
+      </c>
+      <c r="AA76">
+        <v>308.96800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>267.10599999999999</v>
+      </c>
+      <c r="D77">
+        <v>685.12</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>460.66800000000001</v>
+      </c>
+      <c r="G77">
+        <v>84.596000000000004</v>
+      </c>
+      <c r="H77">
+        <v>21054.056</v>
+      </c>
+      <c r="I77">
+        <v>151.68</v>
+      </c>
+      <c r="J77">
+        <v>8637.5550000000003</v>
+      </c>
+      <c r="K77">
+        <v>354.38099999999997</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>797.94399999999996</v>
+      </c>
+      <c r="O77">
+        <v>10152.058000000001</v>
+      </c>
+      <c r="P77">
+        <v>9325.2479999999996</v>
+      </c>
+      <c r="Q77">
+        <v>-224.87200000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>2700</v>
+      </c>
+      <c r="T77">
+        <v>10901.998</v>
+      </c>
+      <c r="U77">
+        <v>28.777000000000001</v>
+      </c>
+      <c r="V77">
+        <v>403.40699999999998</v>
+      </c>
+      <c r="W77">
+        <v>-211.99299999999999</v>
+      </c>
+      <c r="X77">
+        <v>-339.25400000000002</v>
+      </c>
+      <c r="Y77">
+        <v>333.31200000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-0.501</v>
+      </c>
+      <c r="AA77">
+        <v>267.10599999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>289.76400000000001</v>
+      </c>
+      <c r="D78">
+        <v>683.89499999999998</v>
+      </c>
+      <c r="E78">
+        <v>31.495000000000001</v>
+      </c>
+      <c r="F78">
+        <v>457.20299999999997</v>
+      </c>
+      <c r="G78">
+        <v>148.494</v>
+      </c>
+      <c r="H78">
+        <v>21172.769</v>
+      </c>
+      <c r="I78">
+        <v>94.35</v>
+      </c>
+      <c r="J78">
+        <v>8019.1229999999996</v>
+      </c>
+      <c r="K78">
+        <v>1017.833</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1397.3610000000001</v>
+      </c>
+      <c r="O78">
+        <v>10164.843000000001</v>
+      </c>
+      <c r="P78">
+        <v>9368.2900000000009</v>
+      </c>
+      <c r="Q78">
+        <v>32.402999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>2700</v>
+      </c>
+      <c r="T78">
+        <v>11007.925999999999</v>
+      </c>
+      <c r="U78">
+        <v>45.753</v>
+      </c>
+      <c r="V78">
+        <v>362.80399999999997</v>
+      </c>
+      <c r="W78">
+        <v>-211.49199999999999</v>
+      </c>
+      <c r="X78">
+        <v>-216.75700000000001</v>
+      </c>
+      <c r="Y78">
+        <v>331.334</v>
+      </c>
+      <c r="Z78">
+        <v>-0.53100000000000003</v>
+      </c>
+      <c r="AA78">
+        <v>289.76400000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>308.60599999999999</v>
+      </c>
+      <c r="D79">
+        <v>682.32899999999995</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>441.072</v>
+      </c>
+      <c r="G79">
+        <v>140.77000000000001</v>
+      </c>
+      <c r="H79">
+        <v>20919.317999999999</v>
+      </c>
+      <c r="I79">
+        <v>165.696</v>
+      </c>
+      <c r="J79">
+        <v>8020.0529999999999</v>
+      </c>
+      <c r="K79">
+        <v>612.65099999999995</v>
+      </c>
+      <c r="L79">
+        <v>-2291</v>
+      </c>
+      <c r="M79">
+        <v>-741.94100000000003</v>
+      </c>
+      <c r="N79">
+        <v>1077.425</v>
+      </c>
+      <c r="O79">
+        <v>9795.2900000000009</v>
+      </c>
+      <c r="P79">
+        <v>8964.384</v>
+      </c>
+      <c r="Q79">
+        <v>23.771000000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>2600</v>
+      </c>
+      <c r="T79">
+        <v>11124.028</v>
+      </c>
+      <c r="U79">
+        <v>82.334999999999994</v>
+      </c>
+      <c r="V79">
+        <v>382.45100000000002</v>
+      </c>
+      <c r="W79">
+        <v>-212.012</v>
+      </c>
+      <c r="X79">
+        <v>-624.68899999999996</v>
+      </c>
+      <c r="Y79">
+        <v>330.71300000000002</v>
+      </c>
+      <c r="Z79">
+        <v>-5.4589999999999996</v>
+      </c>
+      <c r="AA79">
+        <v>308.60599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>260.88799999999998</v>
+      </c>
+      <c r="D80">
+        <v>653.53200000000004</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>430.43400000000003</v>
+      </c>
+      <c r="G80">
+        <v>245.53299999999999</v>
+      </c>
+      <c r="H80">
+        <v>20714.951000000001</v>
+      </c>
+      <c r="I80">
+        <v>109.776</v>
+      </c>
+      <c r="J80">
+        <v>8421.8590000000004</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>409.57299999999998</v>
+      </c>
+      <c r="O80">
+        <v>9540.7800000000007</v>
+      </c>
+      <c r="P80">
+        <v>8751.9940000000006</v>
+      </c>
+      <c r="Q80">
+        <v>104.76300000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>2600</v>
+      </c>
+      <c r="T80">
+        <v>11174.171</v>
+      </c>
+      <c r="U80">
+        <v>187.416</v>
+      </c>
+      <c r="V80">
+        <v>252.63499999999999</v>
+      </c>
+      <c r="W80">
+        <v>-224.96</v>
+      </c>
+      <c r="X80">
+        <v>-447.21</v>
+      </c>
+      <c r="Y80">
+        <v>330.13499999999999</v>
+      </c>
+      <c r="Z80">
+        <v>-0.67600000000000005</v>
+      </c>
+      <c r="AA80">
+        <v>260.88799999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>91.286000000000001</v>
+      </c>
+      <c r="D81">
+        <v>622.43299999999999</v>
+      </c>
+      <c r="E81">
+        <v>34.69</v>
+      </c>
+      <c r="F81">
+        <v>393.899</v>
+      </c>
+      <c r="G81">
+        <v>269.904</v>
+      </c>
+      <c r="H81">
+        <v>20623.977999999999</v>
+      </c>
+      <c r="I81">
+        <v>158.61099999999999</v>
+      </c>
+      <c r="J81">
+        <v>8396.73</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>456.517</v>
+      </c>
+      <c r="O81">
+        <v>9575.9060000000009</v>
+      </c>
+      <c r="P81">
+        <v>8726.4140000000007</v>
+      </c>
+      <c r="Q81">
+        <v>-10.319000000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>2600</v>
+      </c>
+      <c r="T81">
+        <v>11048.072</v>
+      </c>
+      <c r="U81">
+        <v>178.333</v>
+      </c>
+      <c r="V81">
+        <v>399.238</v>
+      </c>
+      <c r="W81">
+        <v>-225.01400000000001</v>
+      </c>
+      <c r="X81">
+        <v>-260.66800000000001</v>
+      </c>
+      <c r="Y81">
+        <v>329.68400000000003</v>
+      </c>
+      <c r="Z81">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="AA81">
+        <v>91.286000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>252.85599999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>613.43499999999995</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>41.311</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>389.93900000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>141.03899999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>20286.891</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>107.366</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7629.4260000000004</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>414.83</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>838.09199999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>9184.4539999999997</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8373.3860000000004</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-135.48599999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2600</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11102.437</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>42.591000000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>231.21199999999999</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-225.042</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-613.82600000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>311.392</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1.2609999999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>252.85599999999999</v>
       </c>
     </row>
